--- a/backend/src/excel_handler/files/TRAN.xlsx
+++ b/backend/src/excel_handler/files/TRAN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>30-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3013601.65</v>
+        <v>9710584.779999999</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>125566.74</v>
+        <v>255541.7</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>129770.21</v>
+        <v>151389.2</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>179344.83</v>
+        <v>180234.75</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>238303.7</v>
+        <v>237325.85</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>239344</v>
+        <v>239900.8</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>233865.77</v>
+        <v>233987.19</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>630925.6899999999</v>
+        <v>644846.62</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>109839.62</v>
+        <v>170764.4</v>
       </c>
     </row>
     <row r="11">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>136537.83</v>
+        <v>131458.68</v>
       </c>
     </row>
     <row r="12">
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>178447.06</v>
+        <v>178238.73</v>
       </c>
     </row>
     <row r="13">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>86571.44</v>
+        <v>86712.78</v>
       </c>
     </row>
     <row r="14">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>62230.6</v>
+        <v>61966.14</v>
       </c>
     </row>
     <row r="15">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>81216.74000000001</v>
+        <v>92906.27</v>
       </c>
     </row>
     <row r="16">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>85023.03</v>
+        <v>90401.28999999999</v>
       </c>
     </row>
     <row r="17">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>98236.05</v>
+        <v>98118.99000000001</v>
       </c>
     </row>
     <row r="18">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>59784.72</v>
+        <v>59571.71</v>
       </c>
     </row>
     <row r="19">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>40133.2</v>
+        <v>40099.45</v>
       </c>
     </row>
     <row r="20">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>27731.89</v>
+        <v>31403.21</v>
       </c>
     </row>
     <row r="21">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>81549.48</v>
+        <v>70616.19</v>
       </c>
     </row>
     <row r="22">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189647.12</v>
+        <v>228185.25</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>41362.35</v>
+        <v>41369.59</v>
       </c>
     </row>
     <row r="24">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>9739.360000000001</v>
+        <v>9775.870000000001</v>
       </c>
     </row>
     <row r="25">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>44639.72</v>
+        <v>44619.09</v>
       </c>
     </row>
     <row r="26">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2288.32</v>
+        <v>2288.64</v>
       </c>
     </row>
     <row r="27">
@@ -697,7 +697,147 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>27068.92</v>
+        <v>27148.48</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Delta Select</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>343675.59</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Lombardi</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>17014.62</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>MAF</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>18143.13</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Superfondo </t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1992577.89</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Alpha planeam equil</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>9016.200000000001</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Alpha renta balan global</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>672502.0600000001</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Delta gestion V</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>93014.88</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Arpenta ex Mercosur</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>44970.43</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Arpenta acciones</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>15162.45</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Compass Crecim</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1594503.64</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Goal acciones plus</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>2003.42</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Ieb Value</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>2288.64</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Schroeder RV</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>375152.25</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Supefondo RV</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1377230.41</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TRAN.xlsx
+++ b/backend/src/excel_handler/files/TRAN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,35 +439,49 @@
           <t>30-12-2022</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9710584.779999999</v>
+        <v>228185.25</v>
+      </c>
+      <c r="C2" t="n">
+        <v>228540.77</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>255541.7</v>
+        <v>151389.2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>151779.56</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Adcap</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151389.2</v>
+        <v>41369.59</v>
+      </c>
+      <c r="C4" t="n">
+        <v>41212.78</v>
       </c>
     </row>
     <row r="5">
@@ -479,235 +493,305 @@
       <c r="B5" t="n">
         <v>180234.75</v>
       </c>
+      <c r="C5" t="n">
+        <v>180966.68</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>237325.85</v>
+        <v>9016.200000000001</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8938.059999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>239900.8</v>
+        <v>672502.0600000001</v>
+      </c>
+      <c r="C7" t="n">
+        <v>667763.02</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>233987.19</v>
+        <v>9775.870000000001</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9787.889999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>644846.62</v>
+        <v>15162.45</v>
+      </c>
+      <c r="C9" t="n">
+        <v>15167.95</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>170764.4</v>
+        <v>44970.43</v>
+      </c>
+      <c r="C10" t="n">
+        <v>44972.96</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>131458.68</v>
+        <v>237325.85</v>
+      </c>
+      <c r="C11" t="n">
+        <v>230141.76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Compass Crecim</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>178238.73</v>
+        <v>1594503.64</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1588335.52</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>86712.78</v>
+        <v>239900.8</v>
+      </c>
+      <c r="C13" t="n">
+        <v>241153.55</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>61966.14</v>
+        <v>233987.19</v>
+      </c>
+      <c r="C14" t="n">
+        <v>234157.45</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>92906.27</v>
+        <v>343675.59</v>
+      </c>
+      <c r="C15" t="n">
+        <v>345053.22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>90401.28999999999</v>
+        <v>93014.88</v>
+      </c>
+      <c r="C16" t="n">
+        <v>92115.71000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>98118.99000000001</v>
+        <v>92906.27</v>
+      </c>
+      <c r="C17" t="n">
+        <v>100357</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>59571.71</v>
+        <v>90401.28999999999</v>
+      </c>
+      <c r="C18" t="n">
+        <v>98716.33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>40099.45</v>
+        <v>644846.62</v>
+      </c>
+      <c r="C19" t="n">
+        <v>667794.67</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31403.21</v>
+        <v>170764.4</v>
+      </c>
+      <c r="C20" t="n">
+        <v>170767.56</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>70616.19</v>
+          <t>Galileo</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="n">
+        <v>3923342</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Goal</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>228185.25</v>
+        <v>44619.09</v>
+      </c>
+      <c r="C22" t="n">
+        <v>44513.71</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Adcap</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>41369.59</v>
+        <v>2003.42</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2015.97</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>9775.870000000001</v>
+        <v>131458.68</v>
+      </c>
+      <c r="C24" t="n">
+        <v>131464.87</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>44619.09</v>
+        <v>178238.73</v>
+      </c>
+      <c r="C25" t="n">
+        <v>179125.87</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>IEB</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2288.64</v>
+        <v>31403.21</v>
+      </c>
+      <c r="C26" t="n">
+        <v>31611.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>IEB</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>27148.48</v>
+        <v>2288.64</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3172.93</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Ieb Value</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>343675.59</v>
+        <v>2288.64</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3172.93</v>
       </c>
     </row>
     <row r="29">
@@ -719,6 +803,9 @@
       <c r="B29" t="n">
         <v>17014.62</v>
       </c>
+      <c r="C29" t="n">
+        <v>17221.56</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -729,115 +816,175 @@
       <c r="B30" t="n">
         <v>18143.13</v>
       </c>
+      <c r="C30" t="n">
+        <v>17914.92</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1992577.89</v>
+        <v>27148.48</v>
+      </c>
+      <c r="C31" t="n">
+        <v>27070.97</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>9016.200000000001</v>
+        <v>98118.99000000001</v>
+      </c>
+      <c r="C32" t="n">
+        <v>98230.83</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>672502.0600000001</v>
+        <v>59571.71</v>
+      </c>
+      <c r="C33" t="n">
+        <v>59223</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>93014.88</v>
+        <v>70616.19</v>
+      </c>
+      <c r="C34" t="n">
+        <v>70754.56</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>44970.43</v>
+        <v>86712.78</v>
+      </c>
+      <c r="C35" t="n">
+        <v>86322.5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>15162.45</v>
+        <v>61966.14</v>
+      </c>
+      <c r="C36" t="n">
+        <v>62224.84</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecim</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>1594503.64</v>
+          <t>SBS Acciones Argentina</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="n">
+        <v>141434.49</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2003.42</v>
+        <v>375152.25</v>
+      </c>
+      <c r="C38" t="n">
+        <v>376145.49</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2288.64</v>
+        <v>1377230.41</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1376831.53</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>375152.25</v>
+        <v>1992577.89</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2091740.24</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1377230.41</v>
+        <v>40099.45</v>
+      </c>
+      <c r="C41" t="n">
+        <v>40058.31</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>255541.7</v>
+      </c>
+      <c r="C42" t="n">
+        <v>347532.89</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>9710584.779999999</v>
+      </c>
+      <c r="C43" t="n">
+        <v>13901315.46</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TRAN.xlsx
+++ b/backend/src/excel_handler/files/TRAN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,415 +439,543 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13898142.53</v>
+        <v>228540.77</v>
+      </c>
+      <c r="C2" t="n">
+        <v>228317.61</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>356362.63</v>
+        <v>151779.56</v>
+      </c>
+      <c r="C3" t="n">
+        <v>150021.85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Adcap IOL Acciones Argentina</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>228540.77</v>
+        <v>41212.78</v>
+      </c>
+      <c r="C4" t="n">
+        <v>41305.64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>151779.56</v>
+        <v>180966.68</v>
+      </c>
+      <c r="C5" t="n">
+        <v>180612.28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Adcap IOL Acciones Argentina</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41212.78</v>
+        <v>8938.059999999999</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8963.26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>180966.68</v>
+        <v>667763.02</v>
+      </c>
+      <c r="C7" t="n">
+        <v>668178.99</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8938.059999999999</v>
+        <v>9787.889999999999</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9774.530000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>667763.02</v>
+        <v>15167.95</v>
+      </c>
+      <c r="C9" t="n">
+        <v>15159.23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9787.889999999999</v>
+        <v>44972.96</v>
+      </c>
+      <c r="C10" t="n">
+        <v>45025.72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15167.95</v>
+        <v>230141.76</v>
+      </c>
+      <c r="C11" t="n">
+        <v>231091.38</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>Compass Crecimiento</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>44972.96</v>
+        <v>1588335.52</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1579787.3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>230141.76</v>
+        <v>241153.55</v>
+      </c>
+      <c r="C13" t="n">
+        <v>240434.53</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecimiento</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1588335.52</v>
+        <v>234157.45</v>
+      </c>
+      <c r="C14" t="n">
+        <v>234177.03</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>241153.55</v>
+        <v>345053.22</v>
+      </c>
+      <c r="C15" t="n">
+        <v>318887.24</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>234157.45</v>
+        <v>92115.71000000001</v>
+      </c>
+      <c r="C16" t="n">
+        <v>92103.73</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>345053.22</v>
+        <v>100357</v>
+      </c>
+      <c r="C17" t="n">
+        <v>100532.67</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>92115.71000000001</v>
+        <v>98716.33</v>
+      </c>
+      <c r="C18" t="n">
+        <v>99881.42999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>100357</v>
+        <v>667794.67</v>
+      </c>
+      <c r="C19" t="n">
+        <v>666876.98</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>98716.33</v>
+        <v>170767.56</v>
+      </c>
+      <c r="C20" t="n">
+        <v>171096.47</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Galileo Acciones</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>667794.67</v>
+        <v>3923342</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3924173.45</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>170767.56</v>
+        <v>44513.71</v>
+      </c>
+      <c r="C22" t="n">
+        <v>44699.71</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Galileo Acciones</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3923342</v>
+        <v>2015.97</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2001.29</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>44513.71</v>
+        <v>131464.87</v>
+      </c>
+      <c r="C24" t="n">
+        <v>131660.55</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2015.97</v>
+        <v>179125.87</v>
+      </c>
+      <c r="C25" t="n">
+        <v>177945.73</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>131464.87</v>
+        <v>31611.5</v>
+      </c>
+      <c r="C26" t="n">
+        <v>32867.42</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>179125.87</v>
+        <v>3172.93</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3195.36</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31611.5</v>
+        <v>17221.56</v>
+      </c>
+      <c r="C28" t="n">
+        <v>17199.12</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3172.93</v>
+        <v>17914.92</v>
+      </c>
+      <c r="C29" t="n">
+        <v>18105.08</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>17221.56</v>
+        <v>27070.97</v>
+      </c>
+      <c r="C30" t="n">
+        <v>27054.06</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>17914.92</v>
+        <v>98230.83</v>
+      </c>
+      <c r="C31" t="n">
+        <v>98039.91</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>27070.97</v>
+        <v>59223</v>
+      </c>
+      <c r="C32" t="n">
+        <v>59055.94</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>98230.83</v>
+        <v>70754.56</v>
+      </c>
+      <c r="C33" t="n">
+        <v>70741.14</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>59223</v>
+        <v>86322.5</v>
+      </c>
+      <c r="C34" t="n">
+        <v>86828.71000000001</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>70754.56</v>
+        <v>62224.84</v>
+      </c>
+      <c r="C35" t="n">
+        <v>62146.73</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>86322.5</v>
+        <v>141434.49</v>
+      </c>
+      <c r="C36" t="n">
+        <v>238036.54</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>62224.84</v>
+        <v>376145.49</v>
+      </c>
+      <c r="C37" t="n">
+        <v>376234.52</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141434.49</v>
+        <v>1376831.53</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1379923.04</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>376145.49</v>
+        <v>2091740.24</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2092740.93</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1376831.53</v>
+        <v>40058.31</v>
+      </c>
+      <c r="C40" t="n">
+        <v>40239.96</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2091740.24</v>
+        <v>356362.63</v>
+      </c>
+      <c r="C41" t="n">
+        <v>358079.92</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>40058.31</v>
+        <v>13898142.53</v>
+      </c>
+      <c r="C42" t="n">
+        <v>13965117.06</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TRAN.xlsx
+++ b/backend/src/excel_handler/files/TRAN.xlsx
@@ -597,9 +597,7 @@
       <c r="B13" t="n">
         <v>241153.55</v>
       </c>
-      <c r="C13" t="n">
-        <v>240434.53</v>
-      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -610,9 +608,7 @@
       <c r="B14" t="n">
         <v>234157.45</v>
       </c>
-      <c r="C14" t="n">
-        <v>234177.03</v>
-      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -623,9 +619,7 @@
       <c r="B15" t="n">
         <v>345053.22</v>
       </c>
-      <c r="C15" t="n">
-        <v>318887.24</v>
-      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -636,9 +630,7 @@
       <c r="B16" t="n">
         <v>92115.71000000001</v>
       </c>
-      <c r="C16" t="n">
-        <v>92103.73</v>
-      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -649,9 +641,7 @@
       <c r="B17" t="n">
         <v>100357</v>
       </c>
-      <c r="C17" t="n">
-        <v>100532.67</v>
-      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -662,9 +652,7 @@
       <c r="B18" t="n">
         <v>98716.33</v>
       </c>
-      <c r="C18" t="n">
-        <v>99881.42999999999</v>
-      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -675,9 +663,7 @@
       <c r="B19" t="n">
         <v>667794.67</v>
       </c>
-      <c r="C19" t="n">
-        <v>666876.98</v>
-      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -831,9 +817,7 @@
       <c r="B31" t="n">
         <v>98230.83</v>
       </c>
-      <c r="C31" t="n">
-        <v>98039.91</v>
-      </c>
+      <c r="C31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -962,7 +946,7 @@
         <v>356362.63</v>
       </c>
       <c r="C41" t="n">
-        <v>358079.92</v>
+        <v>390780.11</v>
       </c>
     </row>
     <row r="42">
@@ -975,7 +959,7 @@
         <v>13898142.53</v>
       </c>
       <c r="C42" t="n">
-        <v>13965117.06</v>
+        <v>12114183.54</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TRAN.xlsx
+++ b/backend/src/excel_handler/files/TRAN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,32 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>17-02-2023</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>24-02-2023</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>03-03-2023</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>10-03-2023</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>17-03-2023</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>23-03-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>228540.77</v>
+        <v>179254.75</v>
       </c>
       <c r="C2" t="n">
-        <v>228317.61</v>
+        <v>179227.58</v>
       </c>
       <c r="D2" t="n">
-        <v>228648.01</v>
+        <v>178194.26</v>
       </c>
       <c r="E2" t="n">
-        <v>227629.62</v>
+        <v>179641.71</v>
       </c>
       <c r="F2" t="n">
-        <v>220243.54</v>
+        <v>197894.82</v>
       </c>
       <c r="G2" t="n">
-        <v>220181.93</v>
-      </c>
-      <c r="H2" t="n">
-        <v>219699.82</v>
-      </c>
-      <c r="I2" t="n">
-        <v>198135.49</v>
-      </c>
-      <c r="J2" t="n">
-        <v>197732.41</v>
-      </c>
-      <c r="K2" t="n">
-        <v>197672.87</v>
-      </c>
-      <c r="L2" t="n">
-        <v>179585.8</v>
-      </c>
-      <c r="M2" t="n">
-        <v>179254.75</v>
+        <v>197810</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>151779.56</v>
+        <v>151766.01</v>
       </c>
       <c r="C3" t="n">
-        <v>150021.85</v>
+        <v>151816.2</v>
       </c>
       <c r="D3" t="n">
-        <v>150436.98</v>
+        <v>149547.2</v>
       </c>
       <c r="E3" t="n">
-        <v>150775.46</v>
+        <v>151563.83</v>
       </c>
       <c r="F3" t="n">
-        <v>150419.96</v>
+        <v>150208.75</v>
       </c>
       <c r="G3" t="n">
-        <v>150316.37</v>
-      </c>
-      <c r="H3" t="n">
-        <v>151388.79</v>
-      </c>
-      <c r="I3" t="n">
-        <v>150331.75</v>
-      </c>
-      <c r="J3" t="n">
-        <v>151759.56</v>
-      </c>
-      <c r="K3" t="n">
-        <v>150073.31</v>
-      </c>
-      <c r="L3" t="n">
-        <v>151555.08</v>
-      </c>
-      <c r="M3" t="n">
-        <v>151766.01</v>
+        <v>150605.22</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41212.78</v>
+        <v>50028.5</v>
       </c>
       <c r="C4" t="n">
-        <v>41305.64</v>
+        <v>49844.1</v>
       </c>
       <c r="D4" t="n">
-        <v>58543.12</v>
+        <v>49517.84</v>
       </c>
       <c r="E4" t="n">
-        <v>58638.85</v>
+        <v>50058.93</v>
       </c>
       <c r="F4" t="n">
-        <v>58594.61</v>
+        <v>49970.63</v>
       </c>
       <c r="G4" t="n">
-        <v>58453.27</v>
-      </c>
-      <c r="H4" t="n">
-        <v>66443.28</v>
-      </c>
-      <c r="I4" t="n">
-        <v>66255.59</v>
-      </c>
-      <c r="J4" t="n">
-        <v>67334.28</v>
-      </c>
-      <c r="K4" t="n">
-        <v>66496.52</v>
-      </c>
-      <c r="L4" t="n">
-        <v>50040.95</v>
-      </c>
-      <c r="M4" t="n">
-        <v>50028.5</v>
+        <v>49987.13</v>
       </c>
     </row>
     <row r="5">
@@ -631,40 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>180966.68</v>
+        <v>137052.64</v>
       </c>
       <c r="C5" t="n">
-        <v>180612.28</v>
+        <v>137486.96</v>
       </c>
       <c r="D5" t="n">
-        <v>180292.69</v>
+        <v>136437.88</v>
       </c>
       <c r="E5" t="n">
-        <v>180547.33</v>
+        <v>138577.51</v>
       </c>
       <c r="F5" t="n">
-        <v>180169.6</v>
+        <v>137122.04</v>
       </c>
       <c r="G5" t="n">
-        <v>179152.98</v>
-      </c>
-      <c r="H5" t="n">
-        <v>179055.14</v>
-      </c>
-      <c r="I5" t="n">
-        <v>138241.76</v>
-      </c>
-      <c r="J5" t="n">
-        <v>138645.49</v>
-      </c>
-      <c r="K5" t="n">
-        <v>137753.25</v>
-      </c>
-      <c r="L5" t="n">
-        <v>137225.83</v>
-      </c>
-      <c r="M5" t="n">
-        <v>137052.64</v>
+        <v>138559.37</v>
       </c>
     </row>
     <row r="6">
@@ -674,40 +572,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8938.059999999999</v>
+        <v>8924.959999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>8963.26</v>
+        <v>8912.530000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>9010.879999999999</v>
+        <v>8848.49</v>
       </c>
       <c r="E6" t="n">
-        <v>8940.110000000001</v>
+        <v>9013.49</v>
       </c>
       <c r="F6" t="n">
-        <v>8980.6</v>
+        <v>9004.440000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>9000.93</v>
-      </c>
-      <c r="H6" t="n">
-        <v>8979.68</v>
-      </c>
-      <c r="I6" t="n">
-        <v>8893.68</v>
-      </c>
-      <c r="J6" t="n">
-        <v>9018.110000000001</v>
-      </c>
-      <c r="K6" t="n">
-        <v>8983.309999999999</v>
-      </c>
-      <c r="L6" t="n">
-        <v>8943.68</v>
-      </c>
-      <c r="M6" t="n">
-        <v>8924.959999999999</v>
+        <v>8933.49</v>
       </c>
     </row>
     <row r="7">
@@ -717,40 +597,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667763.02</v>
+        <v>668858.48</v>
       </c>
       <c r="C7" t="n">
-        <v>668178.99</v>
+        <v>672484.77</v>
       </c>
       <c r="D7" t="n">
-        <v>670998.12</v>
+        <v>663369.64</v>
       </c>
       <c r="E7" t="n">
-        <v>672713.64</v>
+        <v>672224.89</v>
       </c>
       <c r="F7" t="n">
-        <v>671909.63</v>
+        <v>672305.01</v>
       </c>
       <c r="G7" t="n">
-        <v>668396.85</v>
-      </c>
-      <c r="H7" t="n">
-        <v>671248.1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>672918.13</v>
-      </c>
-      <c r="J7" t="n">
-        <v>670796.72</v>
-      </c>
-      <c r="K7" t="n">
-        <v>671810.49</v>
-      </c>
-      <c r="L7" t="n">
-        <v>667583.33</v>
-      </c>
-      <c r="M7" t="n">
-        <v>668858.48</v>
+        <v>673449.6899999999</v>
       </c>
     </row>
     <row r="8">
@@ -760,40 +622,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9787.889999999999</v>
+        <v>1183.9</v>
       </c>
       <c r="C8" t="n">
-        <v>9774.530000000001</v>
+        <v>1176.36</v>
       </c>
       <c r="D8" t="n">
-        <v>9796.280000000001</v>
+        <v>1166.8</v>
       </c>
       <c r="E8" t="n">
-        <v>9776.48</v>
+        <v>1176.29</v>
       </c>
       <c r="F8" t="n">
-        <v>9749.690000000001</v>
+        <v>1176.98</v>
       </c>
       <c r="G8" t="n">
-        <v>9740.76</v>
-      </c>
-      <c r="H8" t="n">
-        <v>9787.02</v>
-      </c>
-      <c r="I8" t="n">
-        <v>9773.68</v>
-      </c>
-      <c r="J8" t="n">
-        <v>9713.25</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1176.33</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1181.22</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1183.9</v>
+        <v>1175.41</v>
       </c>
     </row>
     <row r="9">
@@ -803,40 +647,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15167.95</v>
+        <v>15158.92</v>
       </c>
       <c r="C9" t="n">
-        <v>15159.23</v>
+        <v>15170.58</v>
       </c>
       <c r="D9" t="n">
-        <v>15161.48</v>
+        <v>15047.3</v>
       </c>
       <c r="E9" t="n">
-        <v>15168.96</v>
+        <v>15157.71</v>
       </c>
       <c r="F9" t="n">
-        <v>15162.03</v>
+        <v>15158.2</v>
       </c>
       <c r="G9" t="n">
-        <v>15158.45</v>
-      </c>
-      <c r="H9" t="n">
-        <v>15163.14</v>
-      </c>
-      <c r="I9" t="n">
-        <v>15164.77</v>
-      </c>
-      <c r="J9" t="n">
-        <v>15158.39</v>
-      </c>
-      <c r="K9" t="n">
-        <v>15162.48</v>
-      </c>
-      <c r="L9" t="n">
-        <v>15160.84</v>
-      </c>
-      <c r="M9" t="n">
-        <v>15158.92</v>
+        <v>15167.23</v>
       </c>
     </row>
     <row r="10">
@@ -846,40 +672,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>44972.96</v>
+        <v>45019.82</v>
       </c>
       <c r="C10" t="n">
-        <v>45025.72</v>
+        <v>44960.84</v>
       </c>
       <c r="D10" t="n">
-        <v>44963.69</v>
+        <v>44682.25</v>
       </c>
       <c r="E10" t="n">
-        <v>44995.82</v>
+        <v>45010.55</v>
       </c>
       <c r="F10" t="n">
-        <v>44996.74</v>
+        <v>45016.76</v>
       </c>
       <c r="G10" t="n">
-        <v>45000.05</v>
-      </c>
-      <c r="H10" t="n">
-        <v>44989.53</v>
-      </c>
-      <c r="I10" t="n">
-        <v>45019.06</v>
-      </c>
-      <c r="J10" t="n">
-        <v>44980.43</v>
-      </c>
-      <c r="K10" t="n">
-        <v>44996.8</v>
-      </c>
-      <c r="L10" t="n">
-        <v>44970.53</v>
-      </c>
-      <c r="M10" t="n">
-        <v>45019.82</v>
+        <v>44976.13</v>
       </c>
     </row>
     <row r="11">
@@ -889,40 +697,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>230141.76</v>
+        <v>230535.77</v>
       </c>
       <c r="C11" t="n">
-        <v>231091.38</v>
+        <v>230034.42</v>
       </c>
       <c r="D11" t="n">
-        <v>230174.98</v>
+        <v>244908.39</v>
       </c>
       <c r="E11" t="n">
-        <v>230623.44</v>
+        <v>155980.03</v>
       </c>
       <c r="F11" t="n">
-        <v>230446.25</v>
+        <v>157113.11</v>
       </c>
       <c r="G11" t="n">
-        <v>230700.16</v>
-      </c>
-      <c r="H11" t="n">
-        <v>230155.58</v>
-      </c>
-      <c r="I11" t="n">
-        <v>230270.22</v>
-      </c>
-      <c r="J11" t="n">
-        <v>230651.51</v>
-      </c>
-      <c r="K11" t="n">
-        <v>230634.45</v>
-      </c>
-      <c r="L11" t="n">
-        <v>230438.86</v>
-      </c>
-      <c r="M11" t="n">
-        <v>230535.77</v>
+        <v>161328.56</v>
       </c>
     </row>
     <row r="12">
@@ -932,40 +722,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1588335.52</v>
+        <v>1476120.13</v>
       </c>
       <c r="C12" t="n">
-        <v>1579787.3</v>
+        <v>1464355.76</v>
       </c>
       <c r="D12" t="n">
-        <v>1574484.28</v>
+        <v>1446898.69</v>
       </c>
       <c r="E12" t="n">
-        <v>1559368.61</v>
+        <v>1448332.41</v>
       </c>
       <c r="F12" t="n">
-        <v>1557640.7</v>
+        <v>1443316.12</v>
       </c>
       <c r="G12" t="n">
-        <v>1548146.3</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1538429.66</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1523926.37</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1507987.59</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1505762.75</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1499288.55</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1476120.13</v>
+        <v>1440374.67</v>
       </c>
     </row>
     <row r="13">
@@ -975,38 +747,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>241153.55</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
+        <v>240960.36</v>
+      </c>
+      <c r="C13" t="n">
+        <v>239382.65</v>
+      </c>
       <c r="D13" t="n">
-        <v>240076.65</v>
+        <v>273426.75</v>
       </c>
       <c r="E13" t="n">
-        <v>240433.74</v>
+        <v>295627.93</v>
       </c>
       <c r="F13" t="n">
-        <v>240970.69</v>
+        <v>296078.47</v>
       </c>
       <c r="G13" t="n">
-        <v>241309.81</v>
-      </c>
-      <c r="H13" t="n">
-        <v>239472.81</v>
-      </c>
-      <c r="I13" t="n">
-        <v>240482.41</v>
-      </c>
-      <c r="J13" t="n">
-        <v>241231.35</v>
-      </c>
-      <c r="K13" t="n">
-        <v>239580.14</v>
-      </c>
-      <c r="L13" t="n">
-        <v>240156.32</v>
-      </c>
-      <c r="M13" t="n">
-        <v>240960.36</v>
+        <v>293716.46</v>
       </c>
     </row>
     <row r="14">
@@ -1016,38 +772,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>234157.45</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
+        <v>234294.49</v>
+      </c>
+      <c r="C14" t="n">
+        <v>233418.43</v>
+      </c>
       <c r="D14" t="n">
-        <v>233733.97</v>
+        <v>225137.04</v>
       </c>
       <c r="E14" t="n">
-        <v>233658.6</v>
+        <v>225808.03</v>
       </c>
       <c r="F14" t="n">
-        <v>233737.46</v>
+        <v>226069.22</v>
       </c>
       <c r="G14" t="n">
-        <v>233765.23</v>
-      </c>
-      <c r="H14" t="n">
-        <v>233424.6</v>
-      </c>
-      <c r="I14" t="n">
-        <v>234252.13</v>
-      </c>
-      <c r="J14" t="n">
-        <v>234331.35</v>
-      </c>
-      <c r="K14" t="n">
-        <v>234136.14</v>
-      </c>
-      <c r="L14" t="n">
-        <v>234017.19</v>
-      </c>
-      <c r="M14" t="n">
-        <v>234294.49</v>
+        <v>225786.19</v>
       </c>
     </row>
     <row r="15">
@@ -1057,38 +797,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>345053.22</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
+        <v>311529.36</v>
+      </c>
+      <c r="C15" t="n">
+        <v>311755.66</v>
+      </c>
       <c r="D15" t="n">
-        <v>315195.98</v>
+        <v>309815.87</v>
       </c>
       <c r="E15" t="n">
-        <v>310370.39</v>
+        <v>312469.18</v>
       </c>
       <c r="F15" t="n">
-        <v>310284.28</v>
+        <v>312171.21</v>
       </c>
       <c r="G15" t="n">
-        <v>310255.58</v>
-      </c>
-      <c r="H15" t="n">
-        <v>312037.57</v>
-      </c>
-      <c r="I15" t="n">
-        <v>311415.21</v>
-      </c>
-      <c r="J15" t="n">
-        <v>311407.64</v>
-      </c>
-      <c r="K15" t="n">
-        <v>310621.08</v>
-      </c>
-      <c r="L15" t="n">
-        <v>310960.12</v>
-      </c>
-      <c r="M15" t="n">
-        <v>311529.36</v>
+        <v>311182.2</v>
       </c>
     </row>
     <row r="16">
@@ -1098,38 +822,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>92115.71000000001</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
+        <v>93591.36</v>
+      </c>
+      <c r="C16" t="n">
+        <v>91206.11</v>
+      </c>
       <c r="D16" t="n">
-        <v>91174.13</v>
+        <v>90245.49000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>91391.17</v>
+        <v>92689.39999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>91707.50999999999</v>
+        <v>60147.93</v>
       </c>
       <c r="G16" t="n">
-        <v>92862.59</v>
-      </c>
-      <c r="H16" t="n">
-        <v>91300.10000000001</v>
-      </c>
-      <c r="I16" t="n">
-        <v>91227.46000000001</v>
-      </c>
-      <c r="J16" t="n">
-        <v>92358.27</v>
-      </c>
-      <c r="K16" t="n">
-        <v>91269.5</v>
-      </c>
-      <c r="L16" t="n">
-        <v>92942.25</v>
-      </c>
-      <c r="M16" t="n">
-        <v>93591.36</v>
+        <v>58836.98</v>
       </c>
     </row>
     <row r="17">
@@ -1139,38 +847,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>100357</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
+        <v>96341</v>
+      </c>
+      <c r="C17" t="n">
+        <v>95741.05</v>
+      </c>
       <c r="D17" t="n">
-        <v>106990.18</v>
+        <v>95599.46000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>112195.88</v>
+        <v>95132.63</v>
       </c>
       <c r="F17" t="n">
-        <v>116668.72</v>
+        <v>96360.06</v>
       </c>
       <c r="G17" t="n">
-        <v>120903.31</v>
-      </c>
-      <c r="H17" t="n">
-        <v>120788.17</v>
-      </c>
-      <c r="I17" t="n">
-        <v>120789.24</v>
-      </c>
-      <c r="J17" t="n">
-        <v>112356.04</v>
-      </c>
-      <c r="K17" t="n">
-        <v>103490.62</v>
-      </c>
-      <c r="L17" t="n">
-        <v>95088.11</v>
-      </c>
-      <c r="M17" t="n">
-        <v>96341</v>
+        <v>95415.92999999999</v>
       </c>
     </row>
     <row r="18">
@@ -1180,38 +872,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>98716.33</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
+        <v>91659.34</v>
+      </c>
+      <c r="C18" t="n">
+        <v>91512.75</v>
+      </c>
       <c r="D18" t="n">
-        <v>108180.77</v>
+        <v>90737.08</v>
       </c>
       <c r="E18" t="n">
-        <v>108964.06</v>
+        <v>92273.46000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>109167.04</v>
+        <v>92267.42</v>
       </c>
       <c r="G18" t="n">
-        <v>108494.54</v>
-      </c>
-      <c r="H18" t="n">
-        <v>109055.61</v>
-      </c>
-      <c r="I18" t="n">
-        <v>108050.51</v>
-      </c>
-      <c r="J18" t="n">
-        <v>99796.37</v>
-      </c>
-      <c r="K18" t="n">
-        <v>91373.78</v>
-      </c>
-      <c r="L18" t="n">
-        <v>92659.5</v>
-      </c>
-      <c r="M18" t="n">
-        <v>91659.34</v>
+        <v>92418.3</v>
       </c>
     </row>
     <row r="19">
@@ -1221,38 +897,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>667794.67</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
+        <v>700134.3199999999</v>
+      </c>
+      <c r="C19" t="n">
+        <v>699645.8199999999</v>
+      </c>
       <c r="D19" t="n">
-        <v>691463.39</v>
+        <v>684461.4</v>
       </c>
       <c r="E19" t="n">
-        <v>751930.59</v>
+        <v>696215.4399999999</v>
       </c>
       <c r="F19" t="n">
-        <v>744947.75</v>
+        <v>717988.37</v>
       </c>
       <c r="G19" t="n">
-        <v>748228.74</v>
-      </c>
-      <c r="H19" t="n">
-        <v>749503.6800000001</v>
-      </c>
-      <c r="I19" t="n">
-        <v>740999.96</v>
-      </c>
-      <c r="J19" t="n">
-        <v>737036.3</v>
-      </c>
-      <c r="K19" t="n">
-        <v>733639.09</v>
-      </c>
-      <c r="L19" t="n">
-        <v>716460.95</v>
-      </c>
-      <c r="M19" t="n">
-        <v>700134.3199999999</v>
+        <v>759010.72</v>
       </c>
     </row>
     <row r="20">
@@ -1262,40 +922,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>170767.56</v>
+        <v>170559.38</v>
       </c>
       <c r="C20" t="n">
-        <v>171096.47</v>
+        <v>165182.58</v>
       </c>
       <c r="D20" t="n">
-        <v>169692.99</v>
+        <v>164979.8</v>
       </c>
       <c r="E20" t="n">
-        <v>170009.73</v>
+        <v>160360.82</v>
       </c>
       <c r="F20" t="n">
-        <v>170942.34</v>
+        <v>160379.96</v>
       </c>
       <c r="G20" t="n">
-        <v>169824.13</v>
-      </c>
-      <c r="H20" t="n">
-        <v>170871.36</v>
-      </c>
-      <c r="I20" t="n">
-        <v>170971.2</v>
-      </c>
-      <c r="J20" t="n">
-        <v>171085.37</v>
-      </c>
-      <c r="K20" t="n">
-        <v>170451.64</v>
-      </c>
-      <c r="L20" t="n">
-        <v>170521.1</v>
-      </c>
-      <c r="M20" t="n">
-        <v>170559.38</v>
+        <v>171802.93</v>
       </c>
     </row>
     <row r="21">
@@ -1304,29 +946,23 @@
           <t>Gainvest Renta Variable</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="n">
-        <v>260004.73</v>
-      </c>
-      <c r="I21" t="n">
-        <v>259741.01</v>
-      </c>
-      <c r="J21" t="n">
-        <v>260086.8</v>
-      </c>
-      <c r="K21" t="n">
-        <v>260193.8</v>
-      </c>
-      <c r="L21" t="n">
-        <v>259727.08</v>
-      </c>
-      <c r="M21" t="n">
+      <c r="B21" t="n">
         <v>259996.35</v>
+      </c>
+      <c r="C21" t="n">
+        <v>260291.65</v>
+      </c>
+      <c r="D21" t="n">
+        <v>257787.9</v>
+      </c>
+      <c r="E21" t="n">
+        <v>260173.66</v>
+      </c>
+      <c r="F21" t="n">
+        <v>260149.16</v>
+      </c>
+      <c r="G21" t="n">
+        <v>259750.6</v>
       </c>
     </row>
     <row r="22">
@@ -1336,40 +972,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3923342</v>
+        <v>3998102.61</v>
       </c>
       <c r="C22" t="n">
-        <v>3924173.45</v>
+        <v>3996679.48</v>
       </c>
       <c r="D22" t="n">
-        <v>3920165.58</v>
+        <v>3971705.96</v>
       </c>
       <c r="E22" t="n">
-        <v>3921133.09</v>
+        <v>4001647.83</v>
       </c>
       <c r="F22" t="n">
-        <v>3921766.11</v>
+        <v>3699101.12</v>
       </c>
       <c r="G22" t="n">
-        <v>3746929.18</v>
-      </c>
-      <c r="H22" t="n">
-        <v>3751313.07</v>
-      </c>
-      <c r="I22" t="n">
-        <v>3751431.98</v>
-      </c>
-      <c r="J22" t="n">
-        <v>4002255.41</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3997719.62</v>
-      </c>
-      <c r="L22" t="n">
-        <v>4001427.59</v>
-      </c>
-      <c r="M22" t="n">
-        <v>3998102.61</v>
+        <v>3696331.06</v>
       </c>
     </row>
     <row r="23">
@@ -1379,40 +997,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>44513.71</v>
+        <v>29570.13</v>
       </c>
       <c r="C23" t="n">
-        <v>44699.71</v>
+        <v>29623.36</v>
       </c>
       <c r="D23" t="n">
-        <v>29695.77</v>
+        <v>29302.66</v>
       </c>
       <c r="E23" t="n">
-        <v>29602.93</v>
+        <v>29537.44</v>
       </c>
       <c r="F23" t="n">
-        <v>29651.83</v>
+        <v>29492.59</v>
       </c>
       <c r="G23" t="n">
-        <v>29546.27</v>
-      </c>
-      <c r="H23" t="n">
-        <v>29576.96</v>
-      </c>
-      <c r="I23" t="n">
-        <v>29680.06</v>
-      </c>
-      <c r="J23" t="n">
-        <v>29531.33</v>
-      </c>
-      <c r="K23" t="n">
-        <v>29658.77</v>
-      </c>
-      <c r="L23" t="n">
-        <v>29503.66</v>
-      </c>
-      <c r="M23" t="n">
-        <v>29570.13</v>
+        <v>29552.32</v>
       </c>
     </row>
     <row r="24">
@@ -1422,40 +1022,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2015.97</v>
+        <v>1983.55</v>
       </c>
       <c r="C24" t="n">
-        <v>2001.29</v>
+        <v>1993.99</v>
       </c>
       <c r="D24" t="n">
-        <v>2016.23</v>
+        <v>1989.18</v>
       </c>
       <c r="E24" t="n">
-        <v>2013.81</v>
+        <v>2015.07</v>
       </c>
       <c r="F24" t="n">
-        <v>2004.58</v>
+        <v>2036.32</v>
       </c>
       <c r="G24" t="n">
-        <v>1978.16</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2009.97</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2024.25</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1985.88</v>
-      </c>
-      <c r="K24" t="n">
-        <v>1988.11</v>
-      </c>
-      <c r="L24" t="n">
-        <v>2026.64</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1983.55</v>
+        <v>2014.91</v>
       </c>
     </row>
     <row r="25">
@@ -1465,40 +1047,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>131464.87</v>
+        <v>86346.17999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>131660.55</v>
+        <v>81443.02</v>
       </c>
       <c r="D25" t="n">
-        <v>131293.31</v>
+        <v>80547.96000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>131190.33</v>
+        <v>76466.44</v>
       </c>
       <c r="F25" t="n">
-        <v>131294.67</v>
+        <v>76281.99000000001</v>
       </c>
       <c r="G25" t="n">
-        <v>130980.99</v>
-      </c>
-      <c r="H25" t="n">
-        <v>126136.75</v>
-      </c>
-      <c r="I25" t="n">
-        <v>111324.74</v>
-      </c>
-      <c r="J25" t="n">
-        <v>96600.64</v>
-      </c>
-      <c r="K25" t="n">
-        <v>91500.13</v>
-      </c>
-      <c r="L25" t="n">
-        <v>86158.14</v>
-      </c>
-      <c r="M25" t="n">
-        <v>86346.17999999999</v>
+        <v>71582.89999999999</v>
       </c>
     </row>
     <row r="26">
@@ -1508,40 +1072,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>179125.87</v>
+        <v>147160.31</v>
       </c>
       <c r="C26" t="n">
-        <v>177945.73</v>
+        <v>146656.38</v>
       </c>
       <c r="D26" t="n">
-        <v>162096.54</v>
+        <v>145341.74</v>
       </c>
       <c r="E26" t="n">
-        <v>161564.12</v>
+        <v>146128.34</v>
       </c>
       <c r="F26" t="n">
-        <v>161139.4</v>
+        <v>147096.98</v>
       </c>
       <c r="G26" t="n">
-        <v>161823</v>
-      </c>
-      <c r="H26" t="n">
-        <v>161866.26</v>
-      </c>
-      <c r="I26" t="n">
-        <v>161246.63</v>
-      </c>
-      <c r="J26" t="n">
-        <v>161503.69</v>
-      </c>
-      <c r="K26" t="n">
-        <v>161696.16</v>
-      </c>
-      <c r="L26" t="n">
-        <v>151236.88</v>
-      </c>
-      <c r="M26" t="n">
-        <v>147160.31</v>
+        <v>157386.89</v>
       </c>
     </row>
     <row r="27">
@@ -1551,40 +1097,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>31611.5</v>
+        <v>45728.5</v>
       </c>
       <c r="C27" t="n">
-        <v>32867.42</v>
+        <v>45514.72</v>
       </c>
       <c r="D27" t="n">
-        <v>42489.83</v>
+        <v>43974.22</v>
       </c>
       <c r="E27" t="n">
-        <v>44411.51</v>
+        <v>43869.56</v>
       </c>
       <c r="F27" t="n">
-        <v>43987.33</v>
+        <v>44678.43</v>
       </c>
       <c r="G27" t="n">
-        <v>43884.82</v>
-      </c>
-      <c r="H27" t="n">
-        <v>52277.71</v>
-      </c>
-      <c r="I27" t="n">
-        <v>52404.59</v>
-      </c>
-      <c r="J27" t="n">
-        <v>52194.14</v>
-      </c>
-      <c r="K27" t="n">
-        <v>52358.4</v>
-      </c>
-      <c r="L27" t="n">
-        <v>51600.59</v>
-      </c>
-      <c r="M27" t="n">
-        <v>45728.5</v>
+        <v>47657.49</v>
       </c>
     </row>
     <row r="28">
@@ -1594,40 +1122,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3172.93</v>
+        <v>3616.76</v>
       </c>
       <c r="C28" t="n">
-        <v>3195.36</v>
+        <v>3555.55</v>
       </c>
       <c r="D28" t="n">
-        <v>3658.87</v>
+        <v>3506.83</v>
       </c>
       <c r="E28" t="n">
-        <v>3647.03</v>
+        <v>3548.72</v>
       </c>
       <c r="F28" t="n">
-        <v>3621.41</v>
+        <v>3565.72</v>
       </c>
       <c r="G28" t="n">
-        <v>3625.06</v>
-      </c>
-      <c r="H28" t="n">
-        <v>3619.41</v>
-      </c>
-      <c r="I28" t="n">
-        <v>3617.84</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3629.88</v>
-      </c>
-      <c r="K28" t="n">
-        <v>3630.43</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3652.8</v>
-      </c>
-      <c r="M28" t="n">
-        <v>3616.76</v>
+        <v>3560.18</v>
       </c>
     </row>
     <row r="29">
@@ -1637,40 +1147,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>17221.56</v>
+        <v>35979.16</v>
       </c>
       <c r="C29" t="n">
-        <v>17199.12</v>
+        <v>31148.12</v>
       </c>
       <c r="D29" t="n">
-        <v>36859.53</v>
+        <v>30678.58</v>
       </c>
       <c r="E29" t="n">
-        <v>41000.29</v>
+        <v>31094.14</v>
       </c>
       <c r="F29" t="n">
-        <v>40900.51</v>
+        <v>31055.4</v>
       </c>
       <c r="G29" t="n">
-        <v>41009.56</v>
-      </c>
-      <c r="H29" t="n">
-        <v>41153.1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>41109.01</v>
-      </c>
-      <c r="J29" t="n">
-        <v>45463.89</v>
-      </c>
-      <c r="K29" t="n">
-        <v>41663.32</v>
-      </c>
-      <c r="L29" t="n">
-        <v>35755.44</v>
-      </c>
-      <c r="M29" t="n">
-        <v>35979.16</v>
+        <v>30864.35</v>
       </c>
     </row>
     <row r="30">
@@ -1680,40 +1172,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>17914.92</v>
+        <v>28162.29</v>
       </c>
       <c r="C30" t="n">
-        <v>18105.08</v>
+        <v>28019.84</v>
       </c>
       <c r="D30" t="n">
-        <v>18021.53</v>
+        <v>27931.22</v>
       </c>
       <c r="E30" t="n">
-        <v>28147.86</v>
+        <v>27961.77</v>
       </c>
       <c r="F30" t="n">
-        <v>28136.16</v>
+        <v>27887.15</v>
       </c>
       <c r="G30" t="n">
-        <v>28096.8</v>
-      </c>
-      <c r="H30" t="n">
-        <v>28043.33</v>
-      </c>
-      <c r="I30" t="n">
-        <v>28104.59</v>
-      </c>
-      <c r="J30" t="n">
-        <v>28077.88</v>
-      </c>
-      <c r="K30" t="n">
-        <v>28110.75</v>
-      </c>
-      <c r="L30" t="n">
-        <v>28085.19</v>
-      </c>
-      <c r="M30" t="n">
-        <v>28162.29</v>
+        <v>27919.59</v>
       </c>
     </row>
     <row r="31">
@@ -1723,40 +1197,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>27070.97</v>
+        <v>20133.38</v>
       </c>
       <c r="C31" t="n">
-        <v>27054.06</v>
+        <v>20138.43</v>
       </c>
       <c r="D31" t="n">
-        <v>20063.61</v>
+        <v>20046.78</v>
       </c>
       <c r="E31" t="n">
-        <v>20021.43</v>
+        <v>32446.44</v>
       </c>
       <c r="F31" t="n">
-        <v>20040.69</v>
+        <v>32569.05</v>
       </c>
       <c r="G31" t="n">
-        <v>20033.15</v>
-      </c>
-      <c r="H31" t="n">
-        <v>20173.86</v>
-      </c>
-      <c r="I31" t="n">
-        <v>20053.46</v>
-      </c>
-      <c r="J31" t="n">
-        <v>20031.45</v>
-      </c>
-      <c r="K31" t="n">
-        <v>20069.71</v>
-      </c>
-      <c r="L31" t="n">
-        <v>20176.63</v>
-      </c>
-      <c r="M31" t="n">
-        <v>20133.38</v>
+        <v>32590.21</v>
       </c>
     </row>
     <row r="32">
@@ -1766,38 +1222,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>98230.83</v>
-      </c>
-      <c r="C32" t="inlineStr"/>
+        <v>97901.32000000001</v>
+      </c>
+      <c r="C32" t="n">
+        <v>98172.28999999999</v>
+      </c>
       <c r="D32" t="n">
-        <v>97963.47</v>
+        <v>97215.81</v>
       </c>
       <c r="E32" t="n">
-        <v>98109.58</v>
+        <v>98402.36</v>
       </c>
       <c r="F32" t="n">
-        <v>98168.33</v>
+        <v>98206.02</v>
       </c>
       <c r="G32" t="n">
-        <v>98290.08</v>
-      </c>
-      <c r="H32" t="n">
-        <v>98521.56</v>
-      </c>
-      <c r="I32" t="n">
-        <v>97897.69</v>
-      </c>
-      <c r="J32" t="n">
-        <v>98362.41</v>
-      </c>
-      <c r="K32" t="n">
-        <v>98278.78999999999</v>
-      </c>
-      <c r="L32" t="n">
-        <v>98580.94</v>
-      </c>
-      <c r="M32" t="n">
-        <v>97901.32000000001</v>
+        <v>98647.69</v>
       </c>
     </row>
     <row r="33">
@@ -1807,40 +1247,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>59223</v>
+        <v>104022.8</v>
       </c>
       <c r="C33" t="n">
-        <v>59055.94</v>
+        <v>103466.77</v>
       </c>
       <c r="D33" t="n">
-        <v>59576.39</v>
+        <v>103272.36</v>
       </c>
       <c r="E33" t="n">
-        <v>227622.62</v>
+        <v>103114.78</v>
       </c>
       <c r="F33" t="n">
-        <v>227847.22</v>
+        <v>103067.67</v>
       </c>
       <c r="G33" t="n">
-        <v>228094.08</v>
-      </c>
-      <c r="H33" t="n">
-        <v>227695.84</v>
-      </c>
-      <c r="I33" t="n">
-        <v>227479.97</v>
-      </c>
-      <c r="J33" t="n">
-        <v>228143.65</v>
-      </c>
-      <c r="K33" t="n">
-        <v>228212.96</v>
-      </c>
-      <c r="L33" t="n">
-        <v>103941.97</v>
-      </c>
-      <c r="M33" t="n">
-        <v>104022.8</v>
+        <v>103744.37</v>
       </c>
     </row>
     <row r="34">
@@ -1850,40 +1272,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>70754.56</v>
+        <v>59253.5</v>
       </c>
       <c r="C34" t="n">
-        <v>70741.14</v>
+        <v>59285.37</v>
       </c>
       <c r="D34" t="n">
-        <v>80825.78999999999</v>
+        <v>58761.54</v>
       </c>
       <c r="E34" t="n">
-        <v>80712.02</v>
+        <v>59395.25</v>
       </c>
       <c r="F34" t="n">
-        <v>80819.14999999999</v>
+        <v>59159.57</v>
       </c>
       <c r="G34" t="n">
-        <v>80757.33</v>
-      </c>
-      <c r="H34" t="n">
-        <v>85701.46000000001</v>
-      </c>
-      <c r="I34" t="n">
-        <v>65528.65</v>
-      </c>
-      <c r="J34" t="n">
-        <v>69057.09</v>
-      </c>
-      <c r="K34" t="n">
-        <v>63263.16</v>
-      </c>
-      <c r="L34" t="n">
-        <v>59100.66</v>
-      </c>
-      <c r="M34" t="n">
-        <v>59253.5</v>
+        <v>62130.24</v>
       </c>
     </row>
     <row r="35">
@@ -1893,40 +1297,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>86322.5</v>
+        <v>86716.39</v>
       </c>
       <c r="C35" t="n">
-        <v>86828.71000000001</v>
+        <v>86352.42999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>86359.42999999999</v>
+        <v>86316.86</v>
       </c>
       <c r="E35" t="n">
-        <v>86453.44</v>
+        <v>130441.9</v>
       </c>
       <c r="F35" t="n">
-        <v>86502.89</v>
+        <v>130013.46</v>
       </c>
       <c r="G35" t="n">
-        <v>86836.28</v>
-      </c>
-      <c r="H35" t="n">
-        <v>86654.2</v>
-      </c>
-      <c r="I35" t="n">
-        <v>86264.38</v>
-      </c>
-      <c r="J35" t="n">
-        <v>86924.00999999999</v>
-      </c>
-      <c r="K35" t="n">
-        <v>86379.24000000001</v>
-      </c>
-      <c r="L35" t="n">
-        <v>86494.12</v>
-      </c>
-      <c r="M35" t="n">
-        <v>86716.39</v>
+        <v>130304.21</v>
       </c>
     </row>
     <row r="36">
@@ -1936,40 +1322,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>62224.84</v>
+        <v>60816.9</v>
       </c>
       <c r="C36" t="n">
-        <v>62146.73</v>
+        <v>57480.61</v>
       </c>
       <c r="D36" t="n">
-        <v>58491.76</v>
+        <v>56964.02</v>
       </c>
       <c r="E36" t="n">
-        <v>57223.75</v>
+        <v>58380.5</v>
       </c>
       <c r="F36" t="n">
-        <v>62018.58</v>
+        <v>57511.12</v>
       </c>
       <c r="G36" t="n">
-        <v>62647.08</v>
-      </c>
-      <c r="H36" t="n">
-        <v>62645.24</v>
-      </c>
-      <c r="I36" t="n">
-        <v>62942.33</v>
-      </c>
-      <c r="J36" t="n">
-        <v>62713.11</v>
-      </c>
-      <c r="K36" t="n">
-        <v>62553.94</v>
-      </c>
-      <c r="L36" t="n">
-        <v>62803.34</v>
-      </c>
-      <c r="M36" t="n">
-        <v>60816.9</v>
+        <v>62568.92</v>
       </c>
     </row>
     <row r="37">
@@ -1979,40 +1347,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>141434.49</v>
+        <v>343811.79</v>
       </c>
       <c r="C37" t="n">
-        <v>238036.54</v>
+        <v>342815.94</v>
       </c>
       <c r="D37" t="n">
-        <v>342975.05</v>
+        <v>341645.48</v>
       </c>
       <c r="E37" t="n">
-        <v>343624.62</v>
+        <v>343449.15</v>
       </c>
       <c r="F37" t="n">
-        <v>343161.76</v>
+        <v>344311.62</v>
       </c>
       <c r="G37" t="n">
-        <v>343090.58</v>
-      </c>
-      <c r="H37" t="n">
-        <v>344485.63</v>
-      </c>
-      <c r="I37" t="n">
-        <v>343307.68</v>
-      </c>
-      <c r="J37" t="n">
-        <v>344172.13</v>
-      </c>
-      <c r="K37" t="n">
-        <v>343864.58</v>
-      </c>
-      <c r="L37" t="n">
-        <v>343144.16</v>
-      </c>
-      <c r="M37" t="n">
-        <v>343811.79</v>
+        <v>343452.72</v>
       </c>
     </row>
     <row r="38">
@@ -2022,237 +1372,122 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>376145.49</v>
+        <v>414696.82</v>
       </c>
       <c r="C38" t="n">
-        <v>376234.52</v>
+        <v>415149.26</v>
       </c>
       <c r="D38" t="n">
-        <v>375697.1</v>
+        <v>412679.34</v>
       </c>
       <c r="E38" t="n">
-        <v>414459.29</v>
+        <v>414454.49</v>
       </c>
       <c r="F38" t="n">
-        <v>415087.67</v>
+        <v>413906.99</v>
       </c>
       <c r="G38" t="n">
-        <v>415135.16</v>
-      </c>
-      <c r="H38" t="n">
-        <v>416761.18</v>
-      </c>
-      <c r="I38" t="n">
-        <v>414225.85</v>
-      </c>
-      <c r="J38" t="n">
-        <v>414018.98</v>
-      </c>
-      <c r="K38" t="n">
-        <v>413222.8</v>
-      </c>
-      <c r="L38" t="n">
-        <v>414326.72</v>
-      </c>
-      <c r="M38" t="n">
-        <v>414696.82</v>
+        <v>414246.56</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1376831.53</v>
+        <v>2090484.02</v>
       </c>
       <c r="C39" t="n">
-        <v>1379923.04</v>
+        <v>2092899.35</v>
       </c>
       <c r="D39" t="n">
-        <v>1422133.76</v>
-      </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
+        <v>1997623.87</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1701535.37</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1599281.73</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1599994.25</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2091740.24</v>
+        <v>40174.37</v>
       </c>
       <c r="C40" t="n">
-        <v>2092740.93</v>
+        <v>40257.86</v>
       </c>
       <c r="D40" t="n">
-        <v>2092542.65</v>
+        <v>39826.54</v>
       </c>
       <c r="E40" t="n">
-        <v>2091666.21</v>
+        <v>40292.19</v>
       </c>
       <c r="F40" t="n">
-        <v>2093472.15</v>
+        <v>40173.75</v>
       </c>
       <c r="G40" t="n">
-        <v>2091596.32</v>
-      </c>
-      <c r="H40" t="n">
-        <v>2090748.15</v>
-      </c>
-      <c r="I40" t="n">
-        <v>2091085.04</v>
-      </c>
-      <c r="J40" t="n">
-        <v>2092941.57</v>
-      </c>
-      <c r="K40" t="n">
-        <v>2091058.33</v>
-      </c>
-      <c r="L40" t="n">
-        <v>2094102.91</v>
-      </c>
-      <c r="M40" t="n">
-        <v>2090484.02</v>
+        <v>40004.04</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>40058.31</v>
+        <v>329682.84</v>
       </c>
       <c r="C41" t="n">
-        <v>40239.96</v>
+        <v>328827.17</v>
       </c>
       <c r="D41" t="n">
-        <v>40215.1</v>
+        <v>325131.81</v>
       </c>
       <c r="E41" t="n">
-        <v>40084.27</v>
+        <v>319017.17</v>
       </c>
       <c r="F41" t="n">
-        <v>40263.54</v>
+        <v>308699.88</v>
       </c>
       <c r="G41" t="n">
-        <v>40084.1</v>
-      </c>
-      <c r="H41" t="n">
-        <v>40127</v>
-      </c>
-      <c r="I41" t="n">
-        <v>40073.35</v>
-      </c>
-      <c r="J41" t="n">
-        <v>40085.48</v>
-      </c>
-      <c r="K41" t="n">
-        <v>40256.34</v>
-      </c>
-      <c r="L41" t="n">
-        <v>40031.04</v>
-      </c>
-      <c r="M41" t="n">
-        <v>40174.37</v>
+        <v>310380.52</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>356362.63</v>
+        <v>12857630.62</v>
       </c>
       <c r="C42" t="n">
-        <v>390780.11</v>
+        <v>12824259.57</v>
       </c>
       <c r="D42" t="n">
-        <v>362875.89</v>
+        <v>12680140.48</v>
       </c>
       <c r="E42" t="n">
-        <v>342126.86</v>
+        <v>12441669.64</v>
       </c>
       <c r="F42" t="n">
-        <v>342016.4</v>
+        <v>12039295.34</v>
       </c>
       <c r="G42" t="n">
-        <v>337219.21</v>
-      </c>
-      <c r="H42" t="n">
-        <v>335674.59</v>
-      </c>
-      <c r="I42" t="n">
-        <v>332478.51</v>
-      </c>
-      <c r="J42" t="n">
-        <v>337978.46</v>
-      </c>
-      <c r="K42" t="n">
-        <v>336429.84</v>
-      </c>
-      <c r="L42" t="n">
-        <v>331042.48</v>
-      </c>
-      <c r="M42" t="n">
-        <v>329682.84</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>13898142.53</v>
-      </c>
-      <c r="C43" t="n">
-        <v>12114183.54</v>
-      </c>
-      <c r="D43" t="n">
-        <v>14152159.87</v>
-      </c>
-      <c r="E43" t="n">
-        <v>13000820.68</v>
-      </c>
-      <c r="F43" t="n">
-        <v>12996623.12</v>
-      </c>
-      <c r="G43" t="n">
-        <v>12814329.98</v>
-      </c>
-      <c r="H43" t="n">
-        <v>13091309.05</v>
-      </c>
-      <c r="I43" t="n">
-        <v>12966661.72</v>
-      </c>
-      <c r="J43" t="n">
-        <v>13181159.85</v>
-      </c>
-      <c r="K43" t="n">
-        <v>13120763.89</v>
-      </c>
-      <c r="L43" t="n">
-        <v>12910656.71</v>
-      </c>
-      <c r="M43" t="n">
-        <v>12857630.62</v>
+        <v>12104840.11</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TRAN.xlsx
+++ b/backend/src/excel_handler/files/TRAN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,32 +436,62 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>23-03-2023</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>31-03-2023</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>05-04-2023</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>14-04-2023</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>21-04-2023</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -472,22 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>228540.77</v>
+      </c>
+      <c r="C2" t="n">
+        <v>228317.61</v>
+      </c>
+      <c r="D2" t="n">
+        <v>228648.01</v>
+      </c>
+      <c r="E2" t="n">
+        <v>227629.62</v>
+      </c>
+      <c r="F2" t="n">
+        <v>220243.54</v>
+      </c>
+      <c r="G2" t="n">
+        <v>220181.93</v>
+      </c>
+      <c r="H2" t="n">
+        <v>219699.82</v>
+      </c>
+      <c r="I2" t="n">
+        <v>198135.49</v>
+      </c>
+      <c r="J2" t="n">
+        <v>197732.41</v>
+      </c>
+      <c r="K2" t="n">
+        <v>197672.87</v>
+      </c>
+      <c r="L2" t="n">
+        <v>179585.8</v>
+      </c>
+      <c r="M2" t="n">
         <v>179254.75</v>
-      </c>
-      <c r="C2" t="n">
-        <v>179227.58</v>
-      </c>
-      <c r="D2" t="n">
-        <v>178194.26</v>
-      </c>
-      <c r="E2" t="n">
-        <v>179641.71</v>
-      </c>
-      <c r="F2" t="n">
-        <v>197894.82</v>
-      </c>
-      <c r="G2" t="n">
-        <v>197810</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +545,40 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>151779.56</v>
+      </c>
+      <c r="C3" t="n">
+        <v>150021.85</v>
+      </c>
+      <c r="D3" t="n">
+        <v>150436.98</v>
+      </c>
+      <c r="E3" t="n">
+        <v>150775.46</v>
+      </c>
+      <c r="F3" t="n">
+        <v>150419.96</v>
+      </c>
+      <c r="G3" t="n">
+        <v>150316.37</v>
+      </c>
+      <c r="H3" t="n">
+        <v>151388.79</v>
+      </c>
+      <c r="I3" t="n">
+        <v>150331.75</v>
+      </c>
+      <c r="J3" t="n">
+        <v>151759.56</v>
+      </c>
+      <c r="K3" t="n">
+        <v>150073.31</v>
+      </c>
+      <c r="L3" t="n">
+        <v>151555.08</v>
+      </c>
+      <c r="M3" t="n">
         <v>151766.01</v>
-      </c>
-      <c r="C3" t="n">
-        <v>151816.2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>149547.2</v>
-      </c>
-      <c r="E3" t="n">
-        <v>151563.83</v>
-      </c>
-      <c r="F3" t="n">
-        <v>150208.75</v>
-      </c>
-      <c r="G3" t="n">
-        <v>150605.22</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +588,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>41212.78</v>
+      </c>
+      <c r="C4" t="n">
+        <v>41305.64</v>
+      </c>
+      <c r="D4" t="n">
+        <v>58543.12</v>
+      </c>
+      <c r="E4" t="n">
+        <v>58638.85</v>
+      </c>
+      <c r="F4" t="n">
+        <v>58594.61</v>
+      </c>
+      <c r="G4" t="n">
+        <v>58453.27</v>
+      </c>
+      <c r="H4" t="n">
+        <v>66443.28</v>
+      </c>
+      <c r="I4" t="n">
+        <v>66255.59</v>
+      </c>
+      <c r="J4" t="n">
+        <v>67334.28</v>
+      </c>
+      <c r="K4" t="n">
+        <v>66496.52</v>
+      </c>
+      <c r="L4" t="n">
+        <v>50040.95</v>
+      </c>
+      <c r="M4" t="n">
         <v>50028.5</v>
-      </c>
-      <c r="C4" t="n">
-        <v>49844.1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>49517.84</v>
-      </c>
-      <c r="E4" t="n">
-        <v>50058.93</v>
-      </c>
-      <c r="F4" t="n">
-        <v>49970.63</v>
-      </c>
-      <c r="G4" t="n">
-        <v>49987.13</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +631,40 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>180966.68</v>
+      </c>
+      <c r="C5" t="n">
+        <v>180612.28</v>
+      </c>
+      <c r="D5" t="n">
+        <v>180292.69</v>
+      </c>
+      <c r="E5" t="n">
+        <v>180547.33</v>
+      </c>
+      <c r="F5" t="n">
+        <v>180169.6</v>
+      </c>
+      <c r="G5" t="n">
+        <v>179152.98</v>
+      </c>
+      <c r="H5" t="n">
+        <v>179055.14</v>
+      </c>
+      <c r="I5" t="n">
+        <v>138241.76</v>
+      </c>
+      <c r="J5" t="n">
+        <v>138645.49</v>
+      </c>
+      <c r="K5" t="n">
+        <v>137753.25</v>
+      </c>
+      <c r="L5" t="n">
+        <v>137225.83</v>
+      </c>
+      <c r="M5" t="n">
         <v>137052.64</v>
-      </c>
-      <c r="C5" t="n">
-        <v>137486.96</v>
-      </c>
-      <c r="D5" t="n">
-        <v>136437.88</v>
-      </c>
-      <c r="E5" t="n">
-        <v>138577.51</v>
-      </c>
-      <c r="F5" t="n">
-        <v>137122.04</v>
-      </c>
-      <c r="G5" t="n">
-        <v>138559.37</v>
       </c>
     </row>
     <row r="6">
@@ -572,22 +674,40 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>8938.059999999999</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8963.26</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9010.879999999999</v>
+      </c>
+      <c r="E6" t="n">
+        <v>8940.110000000001</v>
+      </c>
+      <c r="F6" t="n">
+        <v>8980.6</v>
+      </c>
+      <c r="G6" t="n">
+        <v>9000.93</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8979.68</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8893.68</v>
+      </c>
+      <c r="J6" t="n">
+        <v>9018.110000000001</v>
+      </c>
+      <c r="K6" t="n">
+        <v>8983.309999999999</v>
+      </c>
+      <c r="L6" t="n">
+        <v>8943.68</v>
+      </c>
+      <c r="M6" t="n">
         <v>8924.959999999999</v>
-      </c>
-      <c r="C6" t="n">
-        <v>8912.530000000001</v>
-      </c>
-      <c r="D6" t="n">
-        <v>8848.49</v>
-      </c>
-      <c r="E6" t="n">
-        <v>9013.49</v>
-      </c>
-      <c r="F6" t="n">
-        <v>9004.440000000001</v>
-      </c>
-      <c r="G6" t="n">
-        <v>8933.49</v>
       </c>
     </row>
     <row r="7">
@@ -597,22 +717,40 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>667763.02</v>
+      </c>
+      <c r="C7" t="n">
+        <v>668178.99</v>
+      </c>
+      <c r="D7" t="n">
+        <v>670998.12</v>
+      </c>
+      <c r="E7" t="n">
+        <v>672713.64</v>
+      </c>
+      <c r="F7" t="n">
+        <v>671909.63</v>
+      </c>
+      <c r="G7" t="n">
+        <v>668396.85</v>
+      </c>
+      <c r="H7" t="n">
+        <v>671248.1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>672918.13</v>
+      </c>
+      <c r="J7" t="n">
+        <v>670796.72</v>
+      </c>
+      <c r="K7" t="n">
+        <v>671810.49</v>
+      </c>
+      <c r="L7" t="n">
+        <v>667583.33</v>
+      </c>
+      <c r="M7" t="n">
         <v>668858.48</v>
-      </c>
-      <c r="C7" t="n">
-        <v>672484.77</v>
-      </c>
-      <c r="D7" t="n">
-        <v>663369.64</v>
-      </c>
-      <c r="E7" t="n">
-        <v>672224.89</v>
-      </c>
-      <c r="F7" t="n">
-        <v>672305.01</v>
-      </c>
-      <c r="G7" t="n">
-        <v>673449.6899999999</v>
       </c>
     </row>
     <row r="8">
@@ -622,22 +760,40 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>9787.889999999999</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9774.530000000001</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9796.280000000001</v>
+      </c>
+      <c r="E8" t="n">
+        <v>9776.48</v>
+      </c>
+      <c r="F8" t="n">
+        <v>9749.690000000001</v>
+      </c>
+      <c r="G8" t="n">
+        <v>9740.76</v>
+      </c>
+      <c r="H8" t="n">
+        <v>9787.02</v>
+      </c>
+      <c r="I8" t="n">
+        <v>9773.68</v>
+      </c>
+      <c r="J8" t="n">
+        <v>9713.25</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1176.33</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1181.22</v>
+      </c>
+      <c r="M8" t="n">
         <v>1183.9</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1176.36</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1166.8</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1176.29</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1176.98</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1175.41</v>
       </c>
     </row>
     <row r="9">
@@ -647,22 +803,40 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>15167.95</v>
+      </c>
+      <c r="C9" t="n">
+        <v>15159.23</v>
+      </c>
+      <c r="D9" t="n">
+        <v>15161.48</v>
+      </c>
+      <c r="E9" t="n">
+        <v>15168.96</v>
+      </c>
+      <c r="F9" t="n">
+        <v>15162.03</v>
+      </c>
+      <c r="G9" t="n">
+        <v>15158.45</v>
+      </c>
+      <c r="H9" t="n">
+        <v>15163.14</v>
+      </c>
+      <c r="I9" t="n">
+        <v>15164.77</v>
+      </c>
+      <c r="J9" t="n">
+        <v>15158.39</v>
+      </c>
+      <c r="K9" t="n">
+        <v>15162.48</v>
+      </c>
+      <c r="L9" t="n">
+        <v>15160.84</v>
+      </c>
+      <c r="M9" t="n">
         <v>15158.92</v>
-      </c>
-      <c r="C9" t="n">
-        <v>15170.58</v>
-      </c>
-      <c r="D9" t="n">
-        <v>15047.3</v>
-      </c>
-      <c r="E9" t="n">
-        <v>15157.71</v>
-      </c>
-      <c r="F9" t="n">
-        <v>15158.2</v>
-      </c>
-      <c r="G9" t="n">
-        <v>15167.23</v>
       </c>
     </row>
     <row r="10">
@@ -672,22 +846,40 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>44972.96</v>
+      </c>
+      <c r="C10" t="n">
+        <v>45025.72</v>
+      </c>
+      <c r="D10" t="n">
+        <v>44963.69</v>
+      </c>
+      <c r="E10" t="n">
+        <v>44995.82</v>
+      </c>
+      <c r="F10" t="n">
+        <v>44996.74</v>
+      </c>
+      <c r="G10" t="n">
+        <v>45000.05</v>
+      </c>
+      <c r="H10" t="n">
+        <v>44989.53</v>
+      </c>
+      <c r="I10" t="n">
+        <v>45019.06</v>
+      </c>
+      <c r="J10" t="n">
+        <v>44980.43</v>
+      </c>
+      <c r="K10" t="n">
+        <v>44996.8</v>
+      </c>
+      <c r="L10" t="n">
+        <v>44970.53</v>
+      </c>
+      <c r="M10" t="n">
         <v>45019.82</v>
-      </c>
-      <c r="C10" t="n">
-        <v>44960.84</v>
-      </c>
-      <c r="D10" t="n">
-        <v>44682.25</v>
-      </c>
-      <c r="E10" t="n">
-        <v>45010.55</v>
-      </c>
-      <c r="F10" t="n">
-        <v>45016.76</v>
-      </c>
-      <c r="G10" t="n">
-        <v>44976.13</v>
       </c>
     </row>
     <row r="11">
@@ -697,22 +889,40 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>230141.76</v>
+      </c>
+      <c r="C11" t="n">
+        <v>231091.38</v>
+      </c>
+      <c r="D11" t="n">
+        <v>230174.98</v>
+      </c>
+      <c r="E11" t="n">
+        <v>230623.44</v>
+      </c>
+      <c r="F11" t="n">
+        <v>230446.25</v>
+      </c>
+      <c r="G11" t="n">
+        <v>230700.16</v>
+      </c>
+      <c r="H11" t="n">
+        <v>230155.58</v>
+      </c>
+      <c r="I11" t="n">
+        <v>230270.22</v>
+      </c>
+      <c r="J11" t="n">
+        <v>230651.51</v>
+      </c>
+      <c r="K11" t="n">
+        <v>230634.45</v>
+      </c>
+      <c r="L11" t="n">
+        <v>230438.86</v>
+      </c>
+      <c r="M11" t="n">
         <v>230535.77</v>
-      </c>
-      <c r="C11" t="n">
-        <v>230034.42</v>
-      </c>
-      <c r="D11" t="n">
-        <v>244908.39</v>
-      </c>
-      <c r="E11" t="n">
-        <v>155980.03</v>
-      </c>
-      <c r="F11" t="n">
-        <v>157113.11</v>
-      </c>
-      <c r="G11" t="n">
-        <v>161328.56</v>
       </c>
     </row>
     <row r="12">
@@ -722,22 +932,40 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>1588335.52</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1579787.3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1574484.28</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1559368.61</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1557640.7</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1548146.3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1538429.66</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1523926.37</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1507987.59</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1505762.75</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1499288.55</v>
+      </c>
+      <c r="M12" t="n">
         <v>1476120.13</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1464355.76</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1446898.69</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1448332.41</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1443316.12</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1440374.67</v>
       </c>
     </row>
     <row r="13">
@@ -747,22 +975,38 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>241153.55</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>240076.65</v>
+      </c>
+      <c r="E13" t="n">
+        <v>240433.74</v>
+      </c>
+      <c r="F13" t="n">
+        <v>240970.69</v>
+      </c>
+      <c r="G13" t="n">
+        <v>241309.81</v>
+      </c>
+      <c r="H13" t="n">
+        <v>239472.81</v>
+      </c>
+      <c r="I13" t="n">
+        <v>240482.41</v>
+      </c>
+      <c r="J13" t="n">
+        <v>241231.35</v>
+      </c>
+      <c r="K13" t="n">
+        <v>239580.14</v>
+      </c>
+      <c r="L13" t="n">
+        <v>240156.32</v>
+      </c>
+      <c r="M13" t="n">
         <v>240960.36</v>
-      </c>
-      <c r="C13" t="n">
-        <v>239382.65</v>
-      </c>
-      <c r="D13" t="n">
-        <v>273426.75</v>
-      </c>
-      <c r="E13" t="n">
-        <v>295627.93</v>
-      </c>
-      <c r="F13" t="n">
-        <v>296078.47</v>
-      </c>
-      <c r="G13" t="n">
-        <v>293716.46</v>
       </c>
     </row>
     <row r="14">
@@ -772,22 +1016,38 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>234157.45</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>233733.97</v>
+      </c>
+      <c r="E14" t="n">
+        <v>233658.6</v>
+      </c>
+      <c r="F14" t="n">
+        <v>233737.46</v>
+      </c>
+      <c r="G14" t="n">
+        <v>233765.23</v>
+      </c>
+      <c r="H14" t="n">
+        <v>233424.6</v>
+      </c>
+      <c r="I14" t="n">
+        <v>234252.13</v>
+      </c>
+      <c r="J14" t="n">
+        <v>234331.35</v>
+      </c>
+      <c r="K14" t="n">
+        <v>234136.14</v>
+      </c>
+      <c r="L14" t="n">
+        <v>234017.19</v>
+      </c>
+      <c r="M14" t="n">
         <v>234294.49</v>
-      </c>
-      <c r="C14" t="n">
-        <v>233418.43</v>
-      </c>
-      <c r="D14" t="n">
-        <v>225137.04</v>
-      </c>
-      <c r="E14" t="n">
-        <v>225808.03</v>
-      </c>
-      <c r="F14" t="n">
-        <v>226069.22</v>
-      </c>
-      <c r="G14" t="n">
-        <v>225786.19</v>
       </c>
     </row>
     <row r="15">
@@ -797,22 +1057,38 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>345053.22</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>315195.98</v>
+      </c>
+      <c r="E15" t="n">
+        <v>310370.39</v>
+      </c>
+      <c r="F15" t="n">
+        <v>310284.28</v>
+      </c>
+      <c r="G15" t="n">
+        <v>310255.58</v>
+      </c>
+      <c r="H15" t="n">
+        <v>312037.57</v>
+      </c>
+      <c r="I15" t="n">
+        <v>311415.21</v>
+      </c>
+      <c r="J15" t="n">
+        <v>311407.64</v>
+      </c>
+      <c r="K15" t="n">
+        <v>310621.08</v>
+      </c>
+      <c r="L15" t="n">
+        <v>310960.12</v>
+      </c>
+      <c r="M15" t="n">
         <v>311529.36</v>
-      </c>
-      <c r="C15" t="n">
-        <v>311755.66</v>
-      </c>
-      <c r="D15" t="n">
-        <v>309815.87</v>
-      </c>
-      <c r="E15" t="n">
-        <v>312469.18</v>
-      </c>
-      <c r="F15" t="n">
-        <v>312171.21</v>
-      </c>
-      <c r="G15" t="n">
-        <v>311182.2</v>
       </c>
     </row>
     <row r="16">
@@ -822,22 +1098,38 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>92115.71000000001</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>91174.13</v>
+      </c>
+      <c r="E16" t="n">
+        <v>91391.17</v>
+      </c>
+      <c r="F16" t="n">
+        <v>91707.50999999999</v>
+      </c>
+      <c r="G16" t="n">
+        <v>92862.59</v>
+      </c>
+      <c r="H16" t="n">
+        <v>91300.10000000001</v>
+      </c>
+      <c r="I16" t="n">
+        <v>91227.46000000001</v>
+      </c>
+      <c r="J16" t="n">
+        <v>92358.27</v>
+      </c>
+      <c r="K16" t="n">
+        <v>91269.5</v>
+      </c>
+      <c r="L16" t="n">
+        <v>92942.25</v>
+      </c>
+      <c r="M16" t="n">
         <v>93591.36</v>
-      </c>
-      <c r="C16" t="n">
-        <v>91206.11</v>
-      </c>
-      <c r="D16" t="n">
-        <v>90245.49000000001</v>
-      </c>
-      <c r="E16" t="n">
-        <v>92689.39999999999</v>
-      </c>
-      <c r="F16" t="n">
-        <v>60147.93</v>
-      </c>
-      <c r="G16" t="n">
-        <v>58836.98</v>
       </c>
     </row>
     <row r="17">
@@ -847,22 +1139,38 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>100357</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>106990.18</v>
+      </c>
+      <c r="E17" t="n">
+        <v>112195.88</v>
+      </c>
+      <c r="F17" t="n">
+        <v>116668.72</v>
+      </c>
+      <c r="G17" t="n">
+        <v>120903.31</v>
+      </c>
+      <c r="H17" t="n">
+        <v>120788.17</v>
+      </c>
+      <c r="I17" t="n">
+        <v>120789.24</v>
+      </c>
+      <c r="J17" t="n">
+        <v>112356.04</v>
+      </c>
+      <c r="K17" t="n">
+        <v>103490.62</v>
+      </c>
+      <c r="L17" t="n">
+        <v>95088.11</v>
+      </c>
+      <c r="M17" t="n">
         <v>96341</v>
-      </c>
-      <c r="C17" t="n">
-        <v>95741.05</v>
-      </c>
-      <c r="D17" t="n">
-        <v>95599.46000000001</v>
-      </c>
-      <c r="E17" t="n">
-        <v>95132.63</v>
-      </c>
-      <c r="F17" t="n">
-        <v>96360.06</v>
-      </c>
-      <c r="G17" t="n">
-        <v>95415.92999999999</v>
       </c>
     </row>
     <row r="18">
@@ -872,22 +1180,38 @@
         </is>
       </c>
       <c r="B18" t="n">
+        <v>98716.33</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>108180.77</v>
+      </c>
+      <c r="E18" t="n">
+        <v>108964.06</v>
+      </c>
+      <c r="F18" t="n">
+        <v>109167.04</v>
+      </c>
+      <c r="G18" t="n">
+        <v>108494.54</v>
+      </c>
+      <c r="H18" t="n">
+        <v>109055.61</v>
+      </c>
+      <c r="I18" t="n">
+        <v>108050.51</v>
+      </c>
+      <c r="J18" t="n">
+        <v>99796.37</v>
+      </c>
+      <c r="K18" t="n">
+        <v>91373.78</v>
+      </c>
+      <c r="L18" t="n">
+        <v>92659.5</v>
+      </c>
+      <c r="M18" t="n">
         <v>91659.34</v>
-      </c>
-      <c r="C18" t="n">
-        <v>91512.75</v>
-      </c>
-      <c r="D18" t="n">
-        <v>90737.08</v>
-      </c>
-      <c r="E18" t="n">
-        <v>92273.46000000001</v>
-      </c>
-      <c r="F18" t="n">
-        <v>92267.42</v>
-      </c>
-      <c r="G18" t="n">
-        <v>92418.3</v>
       </c>
     </row>
     <row r="19">
@@ -897,22 +1221,38 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>667794.67</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>691463.39</v>
+      </c>
+      <c r="E19" t="n">
+        <v>751930.59</v>
+      </c>
+      <c r="F19" t="n">
+        <v>744947.75</v>
+      </c>
+      <c r="G19" t="n">
+        <v>748228.74</v>
+      </c>
+      <c r="H19" t="n">
+        <v>749503.6800000001</v>
+      </c>
+      <c r="I19" t="n">
+        <v>740999.96</v>
+      </c>
+      <c r="J19" t="n">
+        <v>737036.3</v>
+      </c>
+      <c r="K19" t="n">
+        <v>733639.09</v>
+      </c>
+      <c r="L19" t="n">
+        <v>716460.95</v>
+      </c>
+      <c r="M19" t="n">
         <v>700134.3199999999</v>
-      </c>
-      <c r="C19" t="n">
-        <v>699645.8199999999</v>
-      </c>
-      <c r="D19" t="n">
-        <v>684461.4</v>
-      </c>
-      <c r="E19" t="n">
-        <v>696215.4399999999</v>
-      </c>
-      <c r="F19" t="n">
-        <v>717988.37</v>
-      </c>
-      <c r="G19" t="n">
-        <v>759010.72</v>
       </c>
     </row>
     <row r="20">
@@ -922,22 +1262,40 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>170767.56</v>
+      </c>
+      <c r="C20" t="n">
+        <v>171096.47</v>
+      </c>
+      <c r="D20" t="n">
+        <v>169692.99</v>
+      </c>
+      <c r="E20" t="n">
+        <v>170009.73</v>
+      </c>
+      <c r="F20" t="n">
+        <v>170942.34</v>
+      </c>
+      <c r="G20" t="n">
+        <v>169824.13</v>
+      </c>
+      <c r="H20" t="n">
+        <v>170871.36</v>
+      </c>
+      <c r="I20" t="n">
+        <v>170971.2</v>
+      </c>
+      <c r="J20" t="n">
+        <v>171085.37</v>
+      </c>
+      <c r="K20" t="n">
+        <v>170451.64</v>
+      </c>
+      <c r="L20" t="n">
+        <v>170521.1</v>
+      </c>
+      <c r="M20" t="n">
         <v>170559.38</v>
-      </c>
-      <c r="C20" t="n">
-        <v>165182.58</v>
-      </c>
-      <c r="D20" t="n">
-        <v>164979.8</v>
-      </c>
-      <c r="E20" t="n">
-        <v>160360.82</v>
-      </c>
-      <c r="F20" t="n">
-        <v>160379.96</v>
-      </c>
-      <c r="G20" t="n">
-        <v>171802.93</v>
       </c>
     </row>
     <row r="21">
@@ -946,23 +1304,29 @@
           <t>Gainvest Renta Variable</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="n">
+        <v>260004.73</v>
+      </c>
+      <c r="I21" t="n">
+        <v>259741.01</v>
+      </c>
+      <c r="J21" t="n">
+        <v>260086.8</v>
+      </c>
+      <c r="K21" t="n">
+        <v>260193.8</v>
+      </c>
+      <c r="L21" t="n">
+        <v>259727.08</v>
+      </c>
+      <c r="M21" t="n">
         <v>259996.35</v>
-      </c>
-      <c r="C21" t="n">
-        <v>260291.65</v>
-      </c>
-      <c r="D21" t="n">
-        <v>257787.9</v>
-      </c>
-      <c r="E21" t="n">
-        <v>260173.66</v>
-      </c>
-      <c r="F21" t="n">
-        <v>260149.16</v>
-      </c>
-      <c r="G21" t="n">
-        <v>259750.6</v>
       </c>
     </row>
     <row r="22">
@@ -972,22 +1336,40 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>3923342</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3924173.45</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3920165.58</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3921133.09</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3921766.11</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3746929.18</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3751313.07</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3751431.98</v>
+      </c>
+      <c r="J22" t="n">
+        <v>4002255.41</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3997719.62</v>
+      </c>
+      <c r="L22" t="n">
+        <v>4001427.59</v>
+      </c>
+      <c r="M22" t="n">
         <v>3998102.61</v>
-      </c>
-      <c r="C22" t="n">
-        <v>3996679.48</v>
-      </c>
-      <c r="D22" t="n">
-        <v>3971705.96</v>
-      </c>
-      <c r="E22" t="n">
-        <v>4001647.83</v>
-      </c>
-      <c r="F22" t="n">
-        <v>3699101.12</v>
-      </c>
-      <c r="G22" t="n">
-        <v>3696331.06</v>
       </c>
     </row>
     <row r="23">
@@ -997,22 +1379,40 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>44513.71</v>
+      </c>
+      <c r="C23" t="n">
+        <v>44699.71</v>
+      </c>
+      <c r="D23" t="n">
+        <v>29695.77</v>
+      </c>
+      <c r="E23" t="n">
+        <v>29602.93</v>
+      </c>
+      <c r="F23" t="n">
+        <v>29651.83</v>
+      </c>
+      <c r="G23" t="n">
+        <v>29546.27</v>
+      </c>
+      <c r="H23" t="n">
+        <v>29576.96</v>
+      </c>
+      <c r="I23" t="n">
+        <v>29680.06</v>
+      </c>
+      <c r="J23" t="n">
+        <v>29531.33</v>
+      </c>
+      <c r="K23" t="n">
+        <v>29658.77</v>
+      </c>
+      <c r="L23" t="n">
+        <v>29503.66</v>
+      </c>
+      <c r="M23" t="n">
         <v>29570.13</v>
-      </c>
-      <c r="C23" t="n">
-        <v>29623.36</v>
-      </c>
-      <c r="D23" t="n">
-        <v>29302.66</v>
-      </c>
-      <c r="E23" t="n">
-        <v>29537.44</v>
-      </c>
-      <c r="F23" t="n">
-        <v>29492.59</v>
-      </c>
-      <c r="G23" t="n">
-        <v>29552.32</v>
       </c>
     </row>
     <row r="24">
@@ -1022,22 +1422,40 @@
         </is>
       </c>
       <c r="B24" t="n">
+        <v>2015.97</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2001.29</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2016.23</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2013.81</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2004.58</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1978.16</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2009.97</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2024.25</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1985.88</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1988.11</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2026.64</v>
+      </c>
+      <c r="M24" t="n">
         <v>1983.55</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1993.99</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1989.18</v>
-      </c>
-      <c r="E24" t="n">
-        <v>2015.07</v>
-      </c>
-      <c r="F24" t="n">
-        <v>2036.32</v>
-      </c>
-      <c r="G24" t="n">
-        <v>2014.91</v>
       </c>
     </row>
     <row r="25">
@@ -1047,22 +1465,40 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>131464.87</v>
+      </c>
+      <c r="C25" t="n">
+        <v>131660.55</v>
+      </c>
+      <c r="D25" t="n">
+        <v>131293.31</v>
+      </c>
+      <c r="E25" t="n">
+        <v>131190.33</v>
+      </c>
+      <c r="F25" t="n">
+        <v>131294.67</v>
+      </c>
+      <c r="G25" t="n">
+        <v>130980.99</v>
+      </c>
+      <c r="H25" t="n">
+        <v>126136.75</v>
+      </c>
+      <c r="I25" t="n">
+        <v>111324.74</v>
+      </c>
+      <c r="J25" t="n">
+        <v>96600.64</v>
+      </c>
+      <c r="K25" t="n">
+        <v>91500.13</v>
+      </c>
+      <c r="L25" t="n">
+        <v>86158.14</v>
+      </c>
+      <c r="M25" t="n">
         <v>86346.17999999999</v>
-      </c>
-      <c r="C25" t="n">
-        <v>81443.02</v>
-      </c>
-      <c r="D25" t="n">
-        <v>80547.96000000001</v>
-      </c>
-      <c r="E25" t="n">
-        <v>76466.44</v>
-      </c>
-      <c r="F25" t="n">
-        <v>76281.99000000001</v>
-      </c>
-      <c r="G25" t="n">
-        <v>71582.89999999999</v>
       </c>
     </row>
     <row r="26">
@@ -1072,22 +1508,40 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>179125.87</v>
+      </c>
+      <c r="C26" t="n">
+        <v>177945.73</v>
+      </c>
+      <c r="D26" t="n">
+        <v>162096.54</v>
+      </c>
+      <c r="E26" t="n">
+        <v>161564.12</v>
+      </c>
+      <c r="F26" t="n">
+        <v>161139.4</v>
+      </c>
+      <c r="G26" t="n">
+        <v>161823</v>
+      </c>
+      <c r="H26" t="n">
+        <v>161866.26</v>
+      </c>
+      <c r="I26" t="n">
+        <v>161246.63</v>
+      </c>
+      <c r="J26" t="n">
+        <v>161503.69</v>
+      </c>
+      <c r="K26" t="n">
+        <v>161696.16</v>
+      </c>
+      <c r="L26" t="n">
+        <v>151236.88</v>
+      </c>
+      <c r="M26" t="n">
         <v>147160.31</v>
-      </c>
-      <c r="C26" t="n">
-        <v>146656.38</v>
-      </c>
-      <c r="D26" t="n">
-        <v>145341.74</v>
-      </c>
-      <c r="E26" t="n">
-        <v>146128.34</v>
-      </c>
-      <c r="F26" t="n">
-        <v>147096.98</v>
-      </c>
-      <c r="G26" t="n">
-        <v>157386.89</v>
       </c>
     </row>
     <row r="27">
@@ -1097,22 +1551,40 @@
         </is>
       </c>
       <c r="B27" t="n">
+        <v>31611.5</v>
+      </c>
+      <c r="C27" t="n">
+        <v>32867.42</v>
+      </c>
+      <c r="D27" t="n">
+        <v>42489.83</v>
+      </c>
+      <c r="E27" t="n">
+        <v>44411.51</v>
+      </c>
+      <c r="F27" t="n">
+        <v>43987.33</v>
+      </c>
+      <c r="G27" t="n">
+        <v>43884.82</v>
+      </c>
+      <c r="H27" t="n">
+        <v>52277.71</v>
+      </c>
+      <c r="I27" t="n">
+        <v>52404.59</v>
+      </c>
+      <c r="J27" t="n">
+        <v>52194.14</v>
+      </c>
+      <c r="K27" t="n">
+        <v>52358.4</v>
+      </c>
+      <c r="L27" t="n">
+        <v>51600.59</v>
+      </c>
+      <c r="M27" t="n">
         <v>45728.5</v>
-      </c>
-      <c r="C27" t="n">
-        <v>45514.72</v>
-      </c>
-      <c r="D27" t="n">
-        <v>43974.22</v>
-      </c>
-      <c r="E27" t="n">
-        <v>43869.56</v>
-      </c>
-      <c r="F27" t="n">
-        <v>44678.43</v>
-      </c>
-      <c r="G27" t="n">
-        <v>47657.49</v>
       </c>
     </row>
     <row r="28">
@@ -1122,22 +1594,40 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>3172.93</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3195.36</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3658.87</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3647.03</v>
+      </c>
+      <c r="F28" t="n">
+        <v>3621.41</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3625.06</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3619.41</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3617.84</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3629.88</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3630.43</v>
+      </c>
+      <c r="L28" t="n">
+        <v>3652.8</v>
+      </c>
+      <c r="M28" t="n">
         <v>3616.76</v>
-      </c>
-      <c r="C28" t="n">
-        <v>3555.55</v>
-      </c>
-      <c r="D28" t="n">
-        <v>3506.83</v>
-      </c>
-      <c r="E28" t="n">
-        <v>3548.72</v>
-      </c>
-      <c r="F28" t="n">
-        <v>3565.72</v>
-      </c>
-      <c r="G28" t="n">
-        <v>3560.18</v>
       </c>
     </row>
     <row r="29">
@@ -1147,22 +1637,40 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>17221.56</v>
+      </c>
+      <c r="C29" t="n">
+        <v>17199.12</v>
+      </c>
+      <c r="D29" t="n">
+        <v>36859.53</v>
+      </c>
+      <c r="E29" t="n">
+        <v>41000.29</v>
+      </c>
+      <c r="F29" t="n">
+        <v>40900.51</v>
+      </c>
+      <c r="G29" t="n">
+        <v>41009.56</v>
+      </c>
+      <c r="H29" t="n">
+        <v>41153.1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>41109.01</v>
+      </c>
+      <c r="J29" t="n">
+        <v>45463.89</v>
+      </c>
+      <c r="K29" t="n">
+        <v>41663.32</v>
+      </c>
+      <c r="L29" t="n">
+        <v>35755.44</v>
+      </c>
+      <c r="M29" t="n">
         <v>35979.16</v>
-      </c>
-      <c r="C29" t="n">
-        <v>31148.12</v>
-      </c>
-      <c r="D29" t="n">
-        <v>30678.58</v>
-      </c>
-      <c r="E29" t="n">
-        <v>31094.14</v>
-      </c>
-      <c r="F29" t="n">
-        <v>31055.4</v>
-      </c>
-      <c r="G29" t="n">
-        <v>30864.35</v>
       </c>
     </row>
     <row r="30">
@@ -1172,22 +1680,40 @@
         </is>
       </c>
       <c r="B30" t="n">
+        <v>17914.92</v>
+      </c>
+      <c r="C30" t="n">
+        <v>18105.08</v>
+      </c>
+      <c r="D30" t="n">
+        <v>18021.53</v>
+      </c>
+      <c r="E30" t="n">
+        <v>28147.86</v>
+      </c>
+      <c r="F30" t="n">
+        <v>28136.16</v>
+      </c>
+      <c r="G30" t="n">
+        <v>28096.8</v>
+      </c>
+      <c r="H30" t="n">
+        <v>28043.33</v>
+      </c>
+      <c r="I30" t="n">
+        <v>28104.59</v>
+      </c>
+      <c r="J30" t="n">
+        <v>28077.88</v>
+      </c>
+      <c r="K30" t="n">
+        <v>28110.75</v>
+      </c>
+      <c r="L30" t="n">
+        <v>28085.19</v>
+      </c>
+      <c r="M30" t="n">
         <v>28162.29</v>
-      </c>
-      <c r="C30" t="n">
-        <v>28019.84</v>
-      </c>
-      <c r="D30" t="n">
-        <v>27931.22</v>
-      </c>
-      <c r="E30" t="n">
-        <v>27961.77</v>
-      </c>
-      <c r="F30" t="n">
-        <v>27887.15</v>
-      </c>
-      <c r="G30" t="n">
-        <v>27919.59</v>
       </c>
     </row>
     <row r="31">
@@ -1197,22 +1723,40 @@
         </is>
       </c>
       <c r="B31" t="n">
+        <v>27070.97</v>
+      </c>
+      <c r="C31" t="n">
+        <v>27054.06</v>
+      </c>
+      <c r="D31" t="n">
+        <v>20063.61</v>
+      </c>
+      <c r="E31" t="n">
+        <v>20021.43</v>
+      </c>
+      <c r="F31" t="n">
+        <v>20040.69</v>
+      </c>
+      <c r="G31" t="n">
+        <v>20033.15</v>
+      </c>
+      <c r="H31" t="n">
+        <v>20173.86</v>
+      </c>
+      <c r="I31" t="n">
+        <v>20053.46</v>
+      </c>
+      <c r="J31" t="n">
+        <v>20031.45</v>
+      </c>
+      <c r="K31" t="n">
+        <v>20069.71</v>
+      </c>
+      <c r="L31" t="n">
+        <v>20176.63</v>
+      </c>
+      <c r="M31" t="n">
         <v>20133.38</v>
-      </c>
-      <c r="C31" t="n">
-        <v>20138.43</v>
-      </c>
-      <c r="D31" t="n">
-        <v>20046.78</v>
-      </c>
-      <c r="E31" t="n">
-        <v>32446.44</v>
-      </c>
-      <c r="F31" t="n">
-        <v>32569.05</v>
-      </c>
-      <c r="G31" t="n">
-        <v>32590.21</v>
       </c>
     </row>
     <row r="32">
@@ -1222,22 +1766,38 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>98230.83</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="n">
+        <v>97963.47</v>
+      </c>
+      <c r="E32" t="n">
+        <v>98109.58</v>
+      </c>
+      <c r="F32" t="n">
+        <v>98168.33</v>
+      </c>
+      <c r="G32" t="n">
+        <v>98290.08</v>
+      </c>
+      <c r="H32" t="n">
+        <v>98521.56</v>
+      </c>
+      <c r="I32" t="n">
+        <v>97897.69</v>
+      </c>
+      <c r="J32" t="n">
+        <v>98362.41</v>
+      </c>
+      <c r="K32" t="n">
+        <v>98278.78999999999</v>
+      </c>
+      <c r="L32" t="n">
+        <v>98580.94</v>
+      </c>
+      <c r="M32" t="n">
         <v>97901.32000000001</v>
-      </c>
-      <c r="C32" t="n">
-        <v>98172.28999999999</v>
-      </c>
-      <c r="D32" t="n">
-        <v>97215.81</v>
-      </c>
-      <c r="E32" t="n">
-        <v>98402.36</v>
-      </c>
-      <c r="F32" t="n">
-        <v>98206.02</v>
-      </c>
-      <c r="G32" t="n">
-        <v>98647.69</v>
       </c>
     </row>
     <row r="33">
@@ -1247,22 +1807,40 @@
         </is>
       </c>
       <c r="B33" t="n">
+        <v>59223</v>
+      </c>
+      <c r="C33" t="n">
+        <v>59055.94</v>
+      </c>
+      <c r="D33" t="n">
+        <v>59576.39</v>
+      </c>
+      <c r="E33" t="n">
+        <v>227622.62</v>
+      </c>
+      <c r="F33" t="n">
+        <v>227847.22</v>
+      </c>
+      <c r="G33" t="n">
+        <v>228094.08</v>
+      </c>
+      <c r="H33" t="n">
+        <v>227695.84</v>
+      </c>
+      <c r="I33" t="n">
+        <v>227479.97</v>
+      </c>
+      <c r="J33" t="n">
+        <v>228143.65</v>
+      </c>
+      <c r="K33" t="n">
+        <v>228212.96</v>
+      </c>
+      <c r="L33" t="n">
+        <v>103941.97</v>
+      </c>
+      <c r="M33" t="n">
         <v>104022.8</v>
-      </c>
-      <c r="C33" t="n">
-        <v>103466.77</v>
-      </c>
-      <c r="D33" t="n">
-        <v>103272.36</v>
-      </c>
-      <c r="E33" t="n">
-        <v>103114.78</v>
-      </c>
-      <c r="F33" t="n">
-        <v>103067.67</v>
-      </c>
-      <c r="G33" t="n">
-        <v>103744.37</v>
       </c>
     </row>
     <row r="34">
@@ -1272,22 +1850,40 @@
         </is>
       </c>
       <c r="B34" t="n">
+        <v>70754.56</v>
+      </c>
+      <c r="C34" t="n">
+        <v>70741.14</v>
+      </c>
+      <c r="D34" t="n">
+        <v>80825.78999999999</v>
+      </c>
+      <c r="E34" t="n">
+        <v>80712.02</v>
+      </c>
+      <c r="F34" t="n">
+        <v>80819.14999999999</v>
+      </c>
+      <c r="G34" t="n">
+        <v>80757.33</v>
+      </c>
+      <c r="H34" t="n">
+        <v>85701.46000000001</v>
+      </c>
+      <c r="I34" t="n">
+        <v>65528.65</v>
+      </c>
+      <c r="J34" t="n">
+        <v>69057.09</v>
+      </c>
+      <c r="K34" t="n">
+        <v>63263.16</v>
+      </c>
+      <c r="L34" t="n">
+        <v>59100.66</v>
+      </c>
+      <c r="M34" t="n">
         <v>59253.5</v>
-      </c>
-      <c r="C34" t="n">
-        <v>59285.37</v>
-      </c>
-      <c r="D34" t="n">
-        <v>58761.54</v>
-      </c>
-      <c r="E34" t="n">
-        <v>59395.25</v>
-      </c>
-      <c r="F34" t="n">
-        <v>59159.57</v>
-      </c>
-      <c r="G34" t="n">
-        <v>62130.24</v>
       </c>
     </row>
     <row r="35">
@@ -1297,22 +1893,40 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>86322.5</v>
+      </c>
+      <c r="C35" t="n">
+        <v>86828.71000000001</v>
+      </c>
+      <c r="D35" t="n">
+        <v>86359.42999999999</v>
+      </c>
+      <c r="E35" t="n">
+        <v>86453.44</v>
+      </c>
+      <c r="F35" t="n">
+        <v>86502.89</v>
+      </c>
+      <c r="G35" t="n">
+        <v>86836.28</v>
+      </c>
+      <c r="H35" t="n">
+        <v>86654.2</v>
+      </c>
+      <c r="I35" t="n">
+        <v>86264.38</v>
+      </c>
+      <c r="J35" t="n">
+        <v>86924.00999999999</v>
+      </c>
+      <c r="K35" t="n">
+        <v>86379.24000000001</v>
+      </c>
+      <c r="L35" t="n">
+        <v>86494.12</v>
+      </c>
+      <c r="M35" t="n">
         <v>86716.39</v>
-      </c>
-      <c r="C35" t="n">
-        <v>86352.42999999999</v>
-      </c>
-      <c r="D35" t="n">
-        <v>86316.86</v>
-      </c>
-      <c r="E35" t="n">
-        <v>130441.9</v>
-      </c>
-      <c r="F35" t="n">
-        <v>130013.46</v>
-      </c>
-      <c r="G35" t="n">
-        <v>130304.21</v>
       </c>
     </row>
     <row r="36">
@@ -1322,22 +1936,40 @@
         </is>
       </c>
       <c r="B36" t="n">
+        <v>62224.84</v>
+      </c>
+      <c r="C36" t="n">
+        <v>62146.73</v>
+      </c>
+      <c r="D36" t="n">
+        <v>58491.76</v>
+      </c>
+      <c r="E36" t="n">
+        <v>57223.75</v>
+      </c>
+      <c r="F36" t="n">
+        <v>62018.58</v>
+      </c>
+      <c r="G36" t="n">
+        <v>62647.08</v>
+      </c>
+      <c r="H36" t="n">
+        <v>62645.24</v>
+      </c>
+      <c r="I36" t="n">
+        <v>62942.33</v>
+      </c>
+      <c r="J36" t="n">
+        <v>62713.11</v>
+      </c>
+      <c r="K36" t="n">
+        <v>62553.94</v>
+      </c>
+      <c r="L36" t="n">
+        <v>62803.34</v>
+      </c>
+      <c r="M36" t="n">
         <v>60816.9</v>
-      </c>
-      <c r="C36" t="n">
-        <v>57480.61</v>
-      </c>
-      <c r="D36" t="n">
-        <v>56964.02</v>
-      </c>
-      <c r="E36" t="n">
-        <v>58380.5</v>
-      </c>
-      <c r="F36" t="n">
-        <v>57511.12</v>
-      </c>
-      <c r="G36" t="n">
-        <v>62568.92</v>
       </c>
     </row>
     <row r="37">
@@ -1347,22 +1979,40 @@
         </is>
       </c>
       <c r="B37" t="n">
+        <v>141434.49</v>
+      </c>
+      <c r="C37" t="n">
+        <v>238036.54</v>
+      </c>
+      <c r="D37" t="n">
+        <v>342975.05</v>
+      </c>
+      <c r="E37" t="n">
+        <v>343624.62</v>
+      </c>
+      <c r="F37" t="n">
+        <v>343161.76</v>
+      </c>
+      <c r="G37" t="n">
+        <v>343090.58</v>
+      </c>
+      <c r="H37" t="n">
+        <v>344485.63</v>
+      </c>
+      <c r="I37" t="n">
+        <v>343307.68</v>
+      </c>
+      <c r="J37" t="n">
+        <v>344172.13</v>
+      </c>
+      <c r="K37" t="n">
+        <v>343864.58</v>
+      </c>
+      <c r="L37" t="n">
+        <v>343144.16</v>
+      </c>
+      <c r="M37" t="n">
         <v>343811.79</v>
-      </c>
-      <c r="C37" t="n">
-        <v>342815.94</v>
-      </c>
-      <c r="D37" t="n">
-        <v>341645.48</v>
-      </c>
-      <c r="E37" t="n">
-        <v>343449.15</v>
-      </c>
-      <c r="F37" t="n">
-        <v>344311.62</v>
-      </c>
-      <c r="G37" t="n">
-        <v>343452.72</v>
       </c>
     </row>
     <row r="38">
@@ -1372,122 +2022,237 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>376145.49</v>
+      </c>
+      <c r="C38" t="n">
+        <v>376234.52</v>
+      </c>
+      <c r="D38" t="n">
+        <v>375697.1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>414459.29</v>
+      </c>
+      <c r="F38" t="n">
+        <v>415087.67</v>
+      </c>
+      <c r="G38" t="n">
+        <v>415135.16</v>
+      </c>
+      <c r="H38" t="n">
+        <v>416761.18</v>
+      </c>
+      <c r="I38" t="n">
+        <v>414225.85</v>
+      </c>
+      <c r="J38" t="n">
+        <v>414018.98</v>
+      </c>
+      <c r="K38" t="n">
+        <v>413222.8</v>
+      </c>
+      <c r="L38" t="n">
+        <v>414326.72</v>
+      </c>
+      <c r="M38" t="n">
         <v>414696.82</v>
-      </c>
-      <c r="C38" t="n">
-        <v>415149.26</v>
-      </c>
-      <c r="D38" t="n">
-        <v>412679.34</v>
-      </c>
-      <c r="E38" t="n">
-        <v>414454.49</v>
-      </c>
-      <c r="F38" t="n">
-        <v>413906.99</v>
-      </c>
-      <c r="G38" t="n">
-        <v>414246.56</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2090484.02</v>
+        <v>1376831.53</v>
       </c>
       <c r="C39" t="n">
-        <v>2092899.35</v>
+        <v>1379923.04</v>
       </c>
       <c r="D39" t="n">
-        <v>1997623.87</v>
-      </c>
-      <c r="E39" t="n">
-        <v>1701535.37</v>
-      </c>
-      <c r="F39" t="n">
-        <v>1599281.73</v>
-      </c>
-      <c r="G39" t="n">
-        <v>1599994.25</v>
-      </c>
+        <v>1422133.76</v>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>40174.37</v>
+        <v>2091740.24</v>
       </c>
       <c r="C40" t="n">
-        <v>40257.86</v>
+        <v>2092740.93</v>
       </c>
       <c r="D40" t="n">
-        <v>39826.54</v>
+        <v>2092542.65</v>
       </c>
       <c r="E40" t="n">
-        <v>40292.19</v>
+        <v>2091666.21</v>
       </c>
       <c r="F40" t="n">
-        <v>40173.75</v>
+        <v>2093472.15</v>
       </c>
       <c r="G40" t="n">
-        <v>40004.04</v>
+        <v>2091596.32</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2090748.15</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2091085.04</v>
+      </c>
+      <c r="J40" t="n">
+        <v>2092941.57</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2091058.33</v>
+      </c>
+      <c r="L40" t="n">
+        <v>2094102.91</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2090484.02</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>329682.84</v>
+        <v>40058.31</v>
       </c>
       <c r="C41" t="n">
-        <v>328827.17</v>
+        <v>40239.96</v>
       </c>
       <c r="D41" t="n">
-        <v>325131.81</v>
+        <v>40215.1</v>
       </c>
       <c r="E41" t="n">
-        <v>319017.17</v>
+        <v>40084.27</v>
       </c>
       <c r="F41" t="n">
-        <v>308699.88</v>
+        <v>40263.54</v>
       </c>
       <c r="G41" t="n">
-        <v>310380.52</v>
+        <v>40084.1</v>
+      </c>
+      <c r="H41" t="n">
+        <v>40127</v>
+      </c>
+      <c r="I41" t="n">
+        <v>40073.35</v>
+      </c>
+      <c r="J41" t="n">
+        <v>40085.48</v>
+      </c>
+      <c r="K41" t="n">
+        <v>40256.34</v>
+      </c>
+      <c r="L41" t="n">
+        <v>40031.04</v>
+      </c>
+      <c r="M41" t="n">
+        <v>40174.37</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>356362.63</v>
+      </c>
+      <c r="C42" t="n">
+        <v>390780.11</v>
+      </c>
+      <c r="D42" t="n">
+        <v>362875.89</v>
+      </c>
+      <c r="E42" t="n">
+        <v>342126.86</v>
+      </c>
+      <c r="F42" t="n">
+        <v>342016.4</v>
+      </c>
+      <c r="G42" t="n">
+        <v>337219.21</v>
+      </c>
+      <c r="H42" t="n">
+        <v>335674.59</v>
+      </c>
+      <c r="I42" t="n">
+        <v>332478.51</v>
+      </c>
+      <c r="J42" t="n">
+        <v>337978.46</v>
+      </c>
+      <c r="K42" t="n">
+        <v>336429.84</v>
+      </c>
+      <c r="L42" t="n">
+        <v>331042.48</v>
+      </c>
+      <c r="M42" t="n">
+        <v>329682.84</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
           <t>total</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B43" t="n">
+        <v>13898142.53</v>
+      </c>
+      <c r="C43" t="n">
+        <v>12114183.54</v>
+      </c>
+      <c r="D43" t="n">
+        <v>14152159.87</v>
+      </c>
+      <c r="E43" t="n">
+        <v>13000820.68</v>
+      </c>
+      <c r="F43" t="n">
+        <v>12996623.12</v>
+      </c>
+      <c r="G43" t="n">
+        <v>12814329.98</v>
+      </c>
+      <c r="H43" t="n">
+        <v>13091309.05</v>
+      </c>
+      <c r="I43" t="n">
+        <v>12966661.72</v>
+      </c>
+      <c r="J43" t="n">
+        <v>13181159.85</v>
+      </c>
+      <c r="K43" t="n">
+        <v>13120763.89</v>
+      </c>
+      <c r="L43" t="n">
+        <v>12910656.71</v>
+      </c>
+      <c r="M43" t="n">
         <v>12857630.62</v>
-      </c>
-      <c r="C42" t="n">
-        <v>12824259.57</v>
-      </c>
-      <c r="D42" t="n">
-        <v>12680140.48</v>
-      </c>
-      <c r="E42" t="n">
-        <v>12441669.64</v>
-      </c>
-      <c r="F42" t="n">
-        <v>12039295.34</v>
-      </c>
-      <c r="G42" t="n">
-        <v>12104840.11</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TRAN.xlsx
+++ b/backend/src/excel_handler/files/TRAN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:AA43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,132 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>17-02-2023</t>
+          <t>05-05-2023</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>24-02-2023</t>
+          <t>12-05-2023</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>03-03-2023</t>
+          <t>19-05-2023</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>10-03-2023</t>
+          <t>24-05-2023</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>17-03-2023</t>
+          <t>02-06-2023</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>23-03-2023</t>
+          <t>09-06-2023</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>16-06-2023</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>23-06-2023</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>30-06-2023</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>14-07-2023</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>21-07-2023</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>28-07-2023</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>04-08-2023</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>11-08-2023</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>18-08-2023</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>25-08-2023</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>01-09-2023</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>08-09-2023</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>22-09-2023</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>29-09-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +572,82 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>228540.77</v>
+        <v>179254.75</v>
       </c>
       <c r="C2" t="n">
-        <v>228317.61</v>
+        <v>179227.58</v>
       </c>
       <c r="D2" t="n">
-        <v>228648.01</v>
+        <v>178194.26</v>
       </c>
       <c r="E2" t="n">
-        <v>227629.62</v>
+        <v>179641.71</v>
       </c>
       <c r="F2" t="n">
-        <v>220243.54</v>
+        <v>197894.82</v>
       </c>
       <c r="G2" t="n">
-        <v>220181.93</v>
+        <v>197810</v>
       </c>
       <c r="H2" t="n">
-        <v>219699.82</v>
+        <v>197905.89</v>
       </c>
       <c r="I2" t="n">
-        <v>198135.49</v>
+        <v>197823.72</v>
       </c>
       <c r="J2" t="n">
-        <v>197732.41</v>
+        <v>268091.28</v>
       </c>
       <c r="K2" t="n">
-        <v>197672.87</v>
+        <v>268709.42</v>
       </c>
       <c r="L2" t="n">
-        <v>179585.8</v>
+        <v>268438.37</v>
       </c>
       <c r="M2" t="n">
-        <v>179254.75</v>
+        <v>283958.97</v>
+      </c>
+      <c r="N2" t="n">
+        <v>282993.18</v>
+      </c>
+      <c r="O2" t="n">
+        <v>298957.85</v>
+      </c>
+      <c r="P2" t="n">
+        <v>312872.11</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>313590.1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>331616.39</v>
+      </c>
+      <c r="S2" t="n">
+        <v>332775.78</v>
+      </c>
+      <c r="T2" t="n">
+        <v>332469.93</v>
+      </c>
+      <c r="U2" t="n">
+        <v>346709.49</v>
+      </c>
+      <c r="V2" t="n">
+        <v>372926.64</v>
+      </c>
+      <c r="W2" t="n">
+        <v>371899.12</v>
+      </c>
+      <c r="X2" t="n">
+        <v>395070.27</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>394810.37</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>210374.64</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>174743.46</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +657,82 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>151779.56</v>
+        <v>151766.01</v>
       </c>
       <c r="C3" t="n">
-        <v>150021.85</v>
+        <v>151816.2</v>
       </c>
       <c r="D3" t="n">
-        <v>150436.98</v>
+        <v>149547.2</v>
       </c>
       <c r="E3" t="n">
-        <v>150775.46</v>
+        <v>151563.83</v>
       </c>
       <c r="F3" t="n">
-        <v>150419.96</v>
+        <v>150208.75</v>
       </c>
       <c r="G3" t="n">
-        <v>150316.37</v>
+        <v>150605.22</v>
       </c>
       <c r="H3" t="n">
-        <v>151388.79</v>
+        <v>151324.71</v>
       </c>
       <c r="I3" t="n">
-        <v>150331.75</v>
+        <v>151499.96</v>
       </c>
       <c r="J3" t="n">
-        <v>151759.56</v>
+        <v>174129.38</v>
       </c>
       <c r="K3" t="n">
-        <v>150073.31</v>
+        <v>175118.84</v>
       </c>
       <c r="L3" t="n">
-        <v>151555.08</v>
+        <v>174800.47</v>
       </c>
       <c r="M3" t="n">
-        <v>151766.01</v>
+        <v>174845.11</v>
+      </c>
+      <c r="N3" t="n">
+        <v>175197.46</v>
+      </c>
+      <c r="O3" t="n">
+        <v>174088.26</v>
+      </c>
+      <c r="P3" t="n">
+        <v>175208.88</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>175566.86</v>
+      </c>
+      <c r="R3" t="n">
+        <v>175086.54</v>
+      </c>
+      <c r="S3" t="n">
+        <v>173258.08</v>
+      </c>
+      <c r="T3" t="n">
+        <v>175322.31</v>
+      </c>
+      <c r="U3" t="n">
+        <v>173811.02</v>
+      </c>
+      <c r="V3" t="n">
+        <v>174289.14</v>
+      </c>
+      <c r="W3" t="n">
+        <v>173448.82</v>
+      </c>
+      <c r="X3" t="n">
+        <v>173861.61</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>173207.14</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>175668.33</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>173938.92</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +742,82 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41212.78</v>
+        <v>50028.5</v>
       </c>
       <c r="C4" t="n">
-        <v>41305.64</v>
+        <v>49844.1</v>
       </c>
       <c r="D4" t="n">
-        <v>58543.12</v>
+        <v>49517.84</v>
       </c>
       <c r="E4" t="n">
-        <v>58638.85</v>
+        <v>50058.93</v>
       </c>
       <c r="F4" t="n">
-        <v>58594.61</v>
+        <v>49970.63</v>
       </c>
       <c r="G4" t="n">
-        <v>58453.27</v>
+        <v>49987.13</v>
       </c>
       <c r="H4" t="n">
-        <v>66443.28</v>
+        <v>49971.94</v>
       </c>
       <c r="I4" t="n">
-        <v>66255.59</v>
+        <v>50144.74</v>
       </c>
       <c r="J4" t="n">
-        <v>67334.28</v>
+        <v>49849.86</v>
       </c>
       <c r="K4" t="n">
-        <v>66496.52</v>
+        <v>50165.88</v>
       </c>
       <c r="L4" t="n">
-        <v>50040.95</v>
+        <v>73934.95</v>
       </c>
       <c r="M4" t="n">
-        <v>50028.5</v>
+        <v>73380.16</v>
+      </c>
+      <c r="N4" t="n">
+        <v>73956.10000000001</v>
+      </c>
+      <c r="O4" t="n">
+        <v>74379.71000000001</v>
+      </c>
+      <c r="P4" t="n">
+        <v>74231.42999999999</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>73912.96000000001</v>
+      </c>
+      <c r="R4" t="n">
+        <v>73801.00999999999</v>
+      </c>
+      <c r="S4" t="n">
+        <v>73867.67999999999</v>
+      </c>
+      <c r="T4" t="n">
+        <v>73917.19</v>
+      </c>
+      <c r="U4" t="n">
+        <v>74106.62</v>
+      </c>
+      <c r="V4" t="n">
+        <v>140227.69</v>
+      </c>
+      <c r="W4" t="n">
+        <v>140407.91</v>
+      </c>
+      <c r="X4" t="n">
+        <v>161784.23</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>219164.32</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>219271.72</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>218828.31</v>
       </c>
     </row>
     <row r="5">
@@ -631,40 +827,82 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>180966.68</v>
+        <v>137052.64</v>
       </c>
       <c r="C5" t="n">
-        <v>180612.28</v>
+        <v>137486.96</v>
       </c>
       <c r="D5" t="n">
-        <v>180292.69</v>
+        <v>136437.88</v>
       </c>
       <c r="E5" t="n">
-        <v>180547.33</v>
+        <v>138577.51</v>
       </c>
       <c r="F5" t="n">
-        <v>180169.6</v>
+        <v>137122.04</v>
       </c>
       <c r="G5" t="n">
-        <v>179152.98</v>
+        <v>138559.37</v>
       </c>
       <c r="H5" t="n">
-        <v>179055.14</v>
+        <v>138504.29</v>
       </c>
       <c r="I5" t="n">
-        <v>138241.76</v>
+        <v>138316.17</v>
       </c>
       <c r="J5" t="n">
-        <v>138645.49</v>
+        <v>138523.33</v>
       </c>
       <c r="K5" t="n">
-        <v>137753.25</v>
+        <v>137720.59</v>
       </c>
       <c r="L5" t="n">
-        <v>137225.83</v>
+        <v>137057.34</v>
       </c>
       <c r="M5" t="n">
-        <v>137052.64</v>
+        <v>137072.03</v>
+      </c>
+      <c r="N5" t="n">
+        <v>137204.24</v>
+      </c>
+      <c r="O5" t="n">
+        <v>136817.43</v>
+      </c>
+      <c r="P5" t="n">
+        <v>137011.13</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>136962.47</v>
+      </c>
+      <c r="R5" t="n">
+        <v>137746.54</v>
+      </c>
+      <c r="S5" t="n">
+        <v>137685.33</v>
+      </c>
+      <c r="T5" t="n">
+        <v>138458.71</v>
+      </c>
+      <c r="U5" t="n">
+        <v>136860.11</v>
+      </c>
+      <c r="V5" t="n">
+        <v>137396.52</v>
+      </c>
+      <c r="W5" t="n">
+        <v>138327.68</v>
+      </c>
+      <c r="X5" t="n">
+        <v>137411.33</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>137911.29</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>137631.14</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>138433.96</v>
       </c>
     </row>
     <row r="6">
@@ -674,40 +912,82 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8938.059999999999</v>
+        <v>8924.959999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>8963.26</v>
+        <v>8912.530000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>9010.879999999999</v>
+        <v>8848.49</v>
       </c>
       <c r="E6" t="n">
-        <v>8940.110000000001</v>
+        <v>9013.49</v>
       </c>
       <c r="F6" t="n">
-        <v>8980.6</v>
+        <v>9004.440000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>9000.93</v>
+        <v>8933.49</v>
       </c>
       <c r="H6" t="n">
-        <v>8979.68</v>
+        <v>8968.23</v>
       </c>
       <c r="I6" t="n">
-        <v>8893.68</v>
+        <v>8995.02</v>
       </c>
       <c r="J6" t="n">
-        <v>9018.110000000001</v>
+        <v>8994.4</v>
       </c>
       <c r="K6" t="n">
-        <v>8983.309999999999</v>
+        <v>8920.120000000001</v>
       </c>
       <c r="L6" t="n">
-        <v>8943.68</v>
+        <v>8988.49</v>
       </c>
       <c r="M6" t="n">
-        <v>8924.959999999999</v>
+        <v>9015.190000000001</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9023.889999999999</v>
+      </c>
+      <c r="O6" t="n">
+        <v>8901.82</v>
+      </c>
+      <c r="P6" t="n">
+        <v>8912.059999999999</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>8959.33</v>
+      </c>
+      <c r="R6" t="n">
+        <v>9017.82</v>
+      </c>
+      <c r="S6" t="n">
+        <v>9009.200000000001</v>
+      </c>
+      <c r="T6" t="n">
+        <v>8940.530000000001</v>
+      </c>
+      <c r="U6" t="n">
+        <v>8991.219999999999</v>
+      </c>
+      <c r="V6" t="n">
+        <v>8910.540000000001</v>
+      </c>
+      <c r="W6" t="n">
+        <v>8964.379999999999</v>
+      </c>
+      <c r="X6" t="n">
+        <v>8928.030000000001</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>8944.59</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>8981.41</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>8985.34</v>
       </c>
     </row>
     <row r="7">
@@ -717,40 +997,82 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667763.02</v>
+        <v>668858.48</v>
       </c>
       <c r="C7" t="n">
-        <v>668178.99</v>
+        <v>672484.77</v>
       </c>
       <c r="D7" t="n">
-        <v>670998.12</v>
+        <v>663369.64</v>
       </c>
       <c r="E7" t="n">
-        <v>672713.64</v>
+        <v>672224.89</v>
       </c>
       <c r="F7" t="n">
-        <v>671909.63</v>
+        <v>672305.01</v>
       </c>
       <c r="G7" t="n">
-        <v>668396.85</v>
+        <v>673449.6899999999</v>
       </c>
       <c r="H7" t="n">
-        <v>671248.1</v>
+        <v>669700.5600000001</v>
       </c>
       <c r="I7" t="n">
-        <v>672918.13</v>
+        <v>668317.27</v>
       </c>
       <c r="J7" t="n">
-        <v>670796.72</v>
+        <v>671702.04</v>
       </c>
       <c r="K7" t="n">
-        <v>671810.49</v>
+        <v>673230.72</v>
       </c>
       <c r="L7" t="n">
-        <v>667583.33</v>
+        <v>672887.95</v>
       </c>
       <c r="M7" t="n">
-        <v>668858.48</v>
+        <v>669452.97</v>
+      </c>
+      <c r="N7" t="n">
+        <v>671694.53</v>
+      </c>
+      <c r="O7" t="n">
+        <v>668208.49</v>
+      </c>
+      <c r="P7" t="n">
+        <v>670802.38</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>672278.5699999999</v>
+      </c>
+      <c r="R7" t="n">
+        <v>670217.11</v>
+      </c>
+      <c r="S7" t="n">
+        <v>672030.42</v>
+      </c>
+      <c r="T7" t="n">
+        <v>611349.72</v>
+      </c>
+      <c r="U7" t="n">
+        <v>586154.14</v>
+      </c>
+      <c r="V7" t="n">
+        <v>590817.4</v>
+      </c>
+      <c r="W7" t="n">
+        <v>587801.73</v>
+      </c>
+      <c r="X7" t="n">
+        <v>585660.63</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>586879.6</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>585428.98</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>588314.76</v>
       </c>
     </row>
     <row r="8">
@@ -760,40 +1082,82 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9787.889999999999</v>
+        <v>1183.9</v>
       </c>
       <c r="C8" t="n">
-        <v>9774.530000000001</v>
+        <v>1176.36</v>
       </c>
       <c r="D8" t="n">
-        <v>9796.280000000001</v>
+        <v>1166.8</v>
       </c>
       <c r="E8" t="n">
-        <v>9776.48</v>
+        <v>1176.29</v>
       </c>
       <c r="F8" t="n">
-        <v>9749.690000000001</v>
+        <v>1176.98</v>
       </c>
       <c r="G8" t="n">
-        <v>9740.76</v>
+        <v>1175.41</v>
       </c>
       <c r="H8" t="n">
-        <v>9787.02</v>
+        <v>1179.99</v>
       </c>
       <c r="I8" t="n">
-        <v>9773.68</v>
+        <v>1181.15</v>
       </c>
       <c r="J8" t="n">
-        <v>9713.25</v>
+        <v>1175.06</v>
       </c>
       <c r="K8" t="n">
-        <v>1176.33</v>
+        <v>1178.85</v>
       </c>
       <c r="L8" t="n">
-        <v>1181.22</v>
+        <v>5854.52</v>
       </c>
       <c r="M8" t="n">
-        <v>1183.9</v>
+        <v>5850.97</v>
+      </c>
+      <c r="N8" t="n">
+        <v>5867.04</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2107.03</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1895.82</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1892.65</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1891.04</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1885.12</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1882.94</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1893.9</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1883.69</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1889.41</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1882.78</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1887.75</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1894.24</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1773.33</v>
       </c>
     </row>
     <row r="9">
@@ -803,40 +1167,82 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15167.95</v>
+        <v>15158.92</v>
       </c>
       <c r="C9" t="n">
-        <v>15159.23</v>
+        <v>15170.58</v>
       </c>
       <c r="D9" t="n">
-        <v>15161.48</v>
+        <v>15047.3</v>
       </c>
       <c r="E9" t="n">
-        <v>15168.96</v>
+        <v>15157.71</v>
       </c>
       <c r="F9" t="n">
-        <v>15162.03</v>
+        <v>15158.2</v>
       </c>
       <c r="G9" t="n">
-        <v>15158.45</v>
+        <v>15167.23</v>
       </c>
       <c r="H9" t="n">
-        <v>15163.14</v>
+        <v>15157.96</v>
       </c>
       <c r="I9" t="n">
-        <v>15164.77</v>
+        <v>15163.42</v>
       </c>
       <c r="J9" t="n">
-        <v>15158.39</v>
+        <v>15155.9</v>
       </c>
       <c r="K9" t="n">
-        <v>15162.48</v>
+        <v>15170.42</v>
       </c>
       <c r="L9" t="n">
-        <v>15160.84</v>
+        <v>15162.43</v>
       </c>
       <c r="M9" t="n">
-        <v>15158.92</v>
+        <v>15167.48</v>
+      </c>
+      <c r="N9" t="n">
+        <v>15159.73</v>
+      </c>
+      <c r="O9" t="n">
+        <v>15167.48</v>
+      </c>
+      <c r="P9" t="n">
+        <v>15156.93</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>15169.66</v>
+      </c>
+      <c r="R9" t="n">
+        <v>15158.77</v>
+      </c>
+      <c r="S9" t="n">
+        <v>15158.12</v>
+      </c>
+      <c r="T9" t="n">
+        <v>15159.69</v>
+      </c>
+      <c r="U9" t="n">
+        <v>15167.91</v>
+      </c>
+      <c r="V9" t="n">
+        <v>15157.44</v>
+      </c>
+      <c r="W9" t="n">
+        <v>15164.86</v>
+      </c>
+      <c r="X9" t="n">
+        <v>15168.61</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>15163.72</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>15169.43</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>15156.04</v>
       </c>
     </row>
     <row r="10">
@@ -846,40 +1252,82 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>44972.96</v>
+        <v>45019.82</v>
       </c>
       <c r="C10" t="n">
-        <v>45025.72</v>
+        <v>44960.84</v>
       </c>
       <c r="D10" t="n">
-        <v>44963.69</v>
+        <v>44682.25</v>
       </c>
       <c r="E10" t="n">
+        <v>45010.55</v>
+      </c>
+      <c r="F10" t="n">
+        <v>45016.76</v>
+      </c>
+      <c r="G10" t="n">
+        <v>44976.13</v>
+      </c>
+      <c r="H10" t="n">
+        <v>45014.51</v>
+      </c>
+      <c r="I10" t="n">
+        <v>44981.31</v>
+      </c>
+      <c r="J10" t="n">
+        <v>45012.09</v>
+      </c>
+      <c r="K10" t="n">
+        <v>44985.23</v>
+      </c>
+      <c r="L10" t="n">
+        <v>45019.87</v>
+      </c>
+      <c r="M10" t="n">
         <v>44995.82</v>
       </c>
-      <c r="F10" t="n">
-        <v>44996.74</v>
-      </c>
-      <c r="G10" t="n">
-        <v>45000.05</v>
-      </c>
-      <c r="H10" t="n">
-        <v>44989.53</v>
-      </c>
-      <c r="I10" t="n">
-        <v>45019.06</v>
-      </c>
-      <c r="J10" t="n">
-        <v>44980.43</v>
-      </c>
-      <c r="K10" t="n">
-        <v>44996.8</v>
-      </c>
-      <c r="L10" t="n">
-        <v>44970.53</v>
-      </c>
-      <c r="M10" t="n">
-        <v>45019.82</v>
+      <c r="N10" t="n">
+        <v>44972.72</v>
+      </c>
+      <c r="O10" t="n">
+        <v>45002.96</v>
+      </c>
+      <c r="P10" t="n">
+        <v>45018.38</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>44971.9</v>
+      </c>
+      <c r="R10" t="n">
+        <v>45013.79</v>
+      </c>
+      <c r="S10" t="n">
+        <v>44961.55</v>
+      </c>
+      <c r="T10" t="n">
+        <v>44983.52</v>
+      </c>
+      <c r="U10" t="n">
+        <v>45012.5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>45025.74</v>
+      </c>
+      <c r="W10" t="n">
+        <v>45015.17</v>
+      </c>
+      <c r="X10" t="n">
+        <v>45023.78</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>45023.25</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>45011</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>44953.72</v>
       </c>
     </row>
     <row r="11">
@@ -889,40 +1337,82 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>230141.76</v>
+        <v>230535.77</v>
       </c>
       <c r="C11" t="n">
-        <v>231091.38</v>
+        <v>230034.42</v>
       </c>
       <c r="D11" t="n">
-        <v>230174.98</v>
+        <v>244908.39</v>
       </c>
       <c r="E11" t="n">
-        <v>230623.44</v>
+        <v>155980.03</v>
       </c>
       <c r="F11" t="n">
-        <v>230446.25</v>
+        <v>157113.11</v>
       </c>
       <c r="G11" t="n">
-        <v>230700.16</v>
+        <v>161328.56</v>
       </c>
       <c r="H11" t="n">
-        <v>230155.58</v>
+        <v>162078.85</v>
       </c>
       <c r="I11" t="n">
-        <v>230270.22</v>
+        <v>162318.87</v>
       </c>
       <c r="J11" t="n">
-        <v>230651.51</v>
+        <v>162431.87</v>
       </c>
       <c r="K11" t="n">
-        <v>230634.45</v>
+        <v>169625.38</v>
       </c>
       <c r="L11" t="n">
-        <v>230438.86</v>
+        <v>167998.5</v>
       </c>
       <c r="M11" t="n">
-        <v>230535.77</v>
+        <v>185871.38</v>
+      </c>
+      <c r="N11" t="n">
+        <v>186698.48</v>
+      </c>
+      <c r="O11" t="n">
+        <v>198960.65</v>
+      </c>
+      <c r="P11" t="n">
+        <v>200006.93</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>217865.37</v>
+      </c>
+      <c r="R11" t="n">
+        <v>217971.64</v>
+      </c>
+      <c r="S11" t="n">
+        <v>217527.99</v>
+      </c>
+      <c r="T11" t="n">
+        <v>217246.53</v>
+      </c>
+      <c r="U11" t="n">
+        <v>216128.16</v>
+      </c>
+      <c r="V11" t="n">
+        <v>217928.69</v>
+      </c>
+      <c r="W11" t="n">
+        <v>215182.05</v>
+      </c>
+      <c r="X11" t="n">
+        <v>216358.58</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>215622.98</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>214586.78</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>215304.77</v>
       </c>
     </row>
     <row r="12">
@@ -932,40 +1422,82 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1588335.52</v>
+        <v>1476120.13</v>
       </c>
       <c r="C12" t="n">
-        <v>1579787.3</v>
+        <v>1464355.76</v>
       </c>
       <c r="D12" t="n">
-        <v>1574484.28</v>
+        <v>1446898.69</v>
       </c>
       <c r="E12" t="n">
-        <v>1559368.61</v>
+        <v>1448332.41</v>
       </c>
       <c r="F12" t="n">
-        <v>1557640.7</v>
+        <v>1443316.12</v>
       </c>
       <c r="G12" t="n">
-        <v>1548146.3</v>
+        <v>1440374.67</v>
       </c>
       <c r="H12" t="n">
-        <v>1538429.66</v>
+        <v>1439633.02</v>
       </c>
       <c r="I12" t="n">
-        <v>1523926.37</v>
+        <v>1446740.26</v>
       </c>
       <c r="J12" t="n">
-        <v>1507987.59</v>
+        <v>1448132.73</v>
       </c>
       <c r="K12" t="n">
-        <v>1505762.75</v>
+        <v>1448684.92</v>
       </c>
       <c r="L12" t="n">
-        <v>1499288.55</v>
+        <v>1429853.17</v>
       </c>
       <c r="M12" t="n">
-        <v>1476120.13</v>
+        <v>1430596.52</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1433638.65</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1432302.89</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1432021.12</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1429998.21</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1434070.98</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1431070.73</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1432364.59</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1430422.06</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1431920.95</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1429593.99</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1429230.21</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1432276.66</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1430804.13</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1431598.86</v>
       </c>
     </row>
     <row r="13">
@@ -975,38 +1507,82 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>241153.55</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
+        <v>240960.36</v>
+      </c>
+      <c r="C13" t="n">
+        <v>239382.65</v>
+      </c>
       <c r="D13" t="n">
-        <v>240076.65</v>
+        <v>273426.75</v>
       </c>
       <c r="E13" t="n">
-        <v>240433.74</v>
+        <v>295627.93</v>
       </c>
       <c r="F13" t="n">
-        <v>240970.69</v>
+        <v>296078.47</v>
       </c>
       <c r="G13" t="n">
-        <v>241309.81</v>
+        <v>293716.46</v>
       </c>
       <c r="H13" t="n">
-        <v>239472.81</v>
+        <v>294198.26</v>
       </c>
       <c r="I13" t="n">
-        <v>240482.41</v>
+        <v>294405.43</v>
       </c>
       <c r="J13" t="n">
-        <v>241231.35</v>
+        <v>295533.22</v>
       </c>
       <c r="K13" t="n">
-        <v>239580.14</v>
+        <v>294782.75</v>
       </c>
       <c r="L13" t="n">
-        <v>240156.32</v>
+        <v>294887.76</v>
       </c>
       <c r="M13" t="n">
-        <v>240960.36</v>
+        <v>294169.22</v>
+      </c>
+      <c r="N13" t="n">
+        <v>296045.47</v>
+      </c>
+      <c r="O13" t="n">
+        <v>295093.18</v>
+      </c>
+      <c r="P13" t="n">
+        <v>293951.66</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>295183.06</v>
+      </c>
+      <c r="R13" t="n">
+        <v>294028</v>
+      </c>
+      <c r="S13" t="n">
+        <v>295179.77</v>
+      </c>
+      <c r="T13" t="n">
+        <v>294553.16</v>
+      </c>
+      <c r="U13" t="n">
+        <v>296588.69</v>
+      </c>
+      <c r="V13" t="n">
+        <v>294323.87</v>
+      </c>
+      <c r="W13" t="n">
+        <v>296063.87</v>
+      </c>
+      <c r="X13" t="n">
+        <v>295382.79</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>295492.6</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>296045.62</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>294234.24</v>
       </c>
     </row>
     <row r="14">
@@ -1016,38 +1592,82 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>234157.45</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
+        <v>234294.49</v>
+      </c>
+      <c r="C14" t="n">
+        <v>233418.43</v>
+      </c>
       <c r="D14" t="n">
-        <v>233733.97</v>
+        <v>225137.04</v>
       </c>
       <c r="E14" t="n">
-        <v>233658.6</v>
+        <v>225808.03</v>
       </c>
       <c r="F14" t="n">
-        <v>233737.46</v>
+        <v>226069.22</v>
       </c>
       <c r="G14" t="n">
-        <v>233765.23</v>
+        <v>225786.19</v>
       </c>
       <c r="H14" t="n">
-        <v>233424.6</v>
+        <v>226217.02</v>
       </c>
       <c r="I14" t="n">
-        <v>234252.13</v>
+        <v>226902.61</v>
       </c>
       <c r="J14" t="n">
-        <v>234331.35</v>
+        <v>226125.63</v>
       </c>
       <c r="K14" t="n">
-        <v>234136.14</v>
+        <v>226828.3</v>
       </c>
       <c r="L14" t="n">
-        <v>234017.19</v>
+        <v>226015.26</v>
       </c>
       <c r="M14" t="n">
-        <v>234294.49</v>
+        <v>225865.46</v>
+      </c>
+      <c r="N14" t="n">
+        <v>226603.06</v>
+      </c>
+      <c r="O14" t="n">
+        <v>226606.84</v>
+      </c>
+      <c r="P14" t="n">
+        <v>226187.42</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>226804.98</v>
+      </c>
+      <c r="R14" t="n">
+        <v>226216.92</v>
+      </c>
+      <c r="S14" t="n">
+        <v>226597.41</v>
+      </c>
+      <c r="T14" t="n">
+        <v>226387.05</v>
+      </c>
+      <c r="U14" t="n">
+        <v>226690.18</v>
+      </c>
+      <c r="V14" t="n">
+        <v>226757.99</v>
+      </c>
+      <c r="W14" t="n">
+        <v>225800.44</v>
+      </c>
+      <c r="X14" t="n">
+        <v>225710.87</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>226668.17</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>225951.84</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>226545.85</v>
       </c>
     </row>
     <row r="15">
@@ -1057,38 +1677,82 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>345053.22</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
+        <v>311529.36</v>
+      </c>
+      <c r="C15" t="n">
+        <v>311755.66</v>
+      </c>
       <c r="D15" t="n">
-        <v>315195.98</v>
+        <v>309815.87</v>
       </c>
       <c r="E15" t="n">
-        <v>310370.39</v>
+        <v>312469.18</v>
       </c>
       <c r="F15" t="n">
-        <v>310284.28</v>
+        <v>312171.21</v>
       </c>
       <c r="G15" t="n">
-        <v>310255.58</v>
+        <v>311182.2</v>
       </c>
       <c r="H15" t="n">
-        <v>312037.57</v>
+        <v>311417.31</v>
       </c>
       <c r="I15" t="n">
-        <v>311415.21</v>
+        <v>311304.59</v>
       </c>
       <c r="J15" t="n">
-        <v>311407.64</v>
+        <v>311722.78</v>
       </c>
       <c r="K15" t="n">
-        <v>310621.08</v>
+        <v>310742.13</v>
       </c>
       <c r="L15" t="n">
-        <v>310960.12</v>
+        <v>312418.68</v>
       </c>
       <c r="M15" t="n">
-        <v>311529.36</v>
+        <v>312315.14</v>
+      </c>
+      <c r="N15" t="n">
+        <v>300395.29</v>
+      </c>
+      <c r="O15" t="n">
+        <v>298249.43</v>
+      </c>
+      <c r="P15" t="n">
+        <v>299692.53</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>298279.47</v>
+      </c>
+      <c r="R15" t="n">
+        <v>298736.02</v>
+      </c>
+      <c r="S15" t="n">
+        <v>299511.73</v>
+      </c>
+      <c r="T15" t="n">
+        <v>300566.26</v>
+      </c>
+      <c r="U15" t="n">
+        <v>229542.92</v>
+      </c>
+      <c r="V15" t="n">
+        <v>229854.88</v>
+      </c>
+      <c r="W15" t="n">
+        <v>228337.03</v>
+      </c>
+      <c r="X15" t="n">
+        <v>229465.03</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>228487.81</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>228276.28</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>228761.42</v>
       </c>
     </row>
     <row r="16">
@@ -1098,39 +1762,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>92115.71000000001</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
+        <v>93591.36</v>
+      </c>
+      <c r="C16" t="n">
+        <v>91206.11</v>
+      </c>
       <c r="D16" t="n">
-        <v>91174.13</v>
+        <v>90245.49000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>91391.17</v>
+        <v>92689.39999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>91707.50999999999</v>
+        <v>60147.93</v>
       </c>
       <c r="G16" t="n">
-        <v>92862.59</v>
+        <v>58836.98</v>
       </c>
       <c r="H16" t="n">
-        <v>91300.10000000001</v>
+        <v>59404.9</v>
       </c>
       <c r="I16" t="n">
-        <v>91227.46000000001</v>
+        <v>60532.38</v>
       </c>
       <c r="J16" t="n">
-        <v>92358.27</v>
+        <v>58939.14</v>
       </c>
       <c r="K16" t="n">
-        <v>91269.5</v>
+        <v>58685.46</v>
       </c>
       <c r="L16" t="n">
-        <v>92942.25</v>
+        <v>58798.35</v>
       </c>
       <c r="M16" t="n">
-        <v>93591.36</v>
-      </c>
+        <v>60133.69</v>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1139,38 +1819,82 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>100357</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
+        <v>96341</v>
+      </c>
+      <c r="C17" t="n">
+        <v>95741.05</v>
+      </c>
       <c r="D17" t="n">
-        <v>106990.18</v>
+        <v>95599.46000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>112195.88</v>
+        <v>95132.63</v>
       </c>
       <c r="F17" t="n">
-        <v>116668.72</v>
+        <v>96360.06</v>
       </c>
       <c r="G17" t="n">
-        <v>120903.31</v>
+        <v>95415.92999999999</v>
       </c>
       <c r="H17" t="n">
-        <v>120788.17</v>
+        <v>96225.08</v>
       </c>
       <c r="I17" t="n">
-        <v>120789.24</v>
+        <v>100896.92</v>
       </c>
       <c r="J17" t="n">
-        <v>112356.04</v>
+        <v>101788.21</v>
       </c>
       <c r="K17" t="n">
-        <v>103490.62</v>
+        <v>100563.68</v>
       </c>
       <c r="L17" t="n">
-        <v>95088.11</v>
+        <v>101270.28</v>
       </c>
       <c r="M17" t="n">
-        <v>96341</v>
+        <v>102136.17</v>
+      </c>
+      <c r="N17" t="n">
+        <v>101045.01</v>
+      </c>
+      <c r="O17" t="n">
+        <v>108223.78</v>
+      </c>
+      <c r="P17" t="n">
+        <v>107074.87</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>115644.42</v>
+      </c>
+      <c r="R17" t="n">
+        <v>115232.07</v>
+      </c>
+      <c r="S17" t="n">
+        <v>115953.83</v>
+      </c>
+      <c r="T17" t="n">
+        <v>115739.81</v>
+      </c>
+      <c r="U17" t="n">
+        <v>114666.74</v>
+      </c>
+      <c r="V17" t="n">
+        <v>115914.76</v>
+      </c>
+      <c r="W17" t="n">
+        <v>124257.64</v>
+      </c>
+      <c r="X17" t="n">
+        <v>124173.91</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>123791.34</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>130805.61</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>123909.61</v>
       </c>
     </row>
     <row r="18">
@@ -1180,38 +1904,82 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>98716.33</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
+        <v>91659.34</v>
+      </c>
+      <c r="C18" t="n">
+        <v>91512.75</v>
+      </c>
       <c r="D18" t="n">
-        <v>108180.77</v>
+        <v>90737.08</v>
       </c>
       <c r="E18" t="n">
-        <v>108964.06</v>
+        <v>92273.46000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>109167.04</v>
+        <v>92267.42</v>
       </c>
       <c r="G18" t="n">
-        <v>108494.54</v>
+        <v>92418.3</v>
       </c>
       <c r="H18" t="n">
-        <v>109055.61</v>
+        <v>92608.05</v>
       </c>
       <c r="I18" t="n">
-        <v>108050.51</v>
+        <v>92104.55</v>
       </c>
       <c r="J18" t="n">
-        <v>99796.37</v>
+        <v>96066.73</v>
       </c>
       <c r="K18" t="n">
-        <v>91373.78</v>
+        <v>95323.03999999999</v>
       </c>
       <c r="L18" t="n">
-        <v>92659.5</v>
+        <v>95750.63</v>
       </c>
       <c r="M18" t="n">
-        <v>91659.34</v>
+        <v>95141.62</v>
+      </c>
+      <c r="N18" t="n">
+        <v>96300.56</v>
+      </c>
+      <c r="O18" t="n">
+        <v>105206.05</v>
+      </c>
+      <c r="P18" t="n">
+        <v>110420.07</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>110931.73</v>
+      </c>
+      <c r="R18" t="n">
+        <v>111163.58</v>
+      </c>
+      <c r="S18" t="n">
+        <v>110448.3</v>
+      </c>
+      <c r="T18" t="n">
+        <v>111071.79</v>
+      </c>
+      <c r="U18" t="n">
+        <v>109927.89</v>
+      </c>
+      <c r="V18" t="n">
+        <v>109955.2</v>
+      </c>
+      <c r="W18" t="n">
+        <v>110765.93</v>
+      </c>
+      <c r="X18" t="n">
+        <v>110016.46</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>111367.16</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>125272.8</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>123263.92</v>
       </c>
     </row>
     <row r="19">
@@ -1221,38 +1989,82 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>667794.67</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
+        <v>700134.3199999999</v>
+      </c>
+      <c r="C19" t="n">
+        <v>699645.8199999999</v>
+      </c>
       <c r="D19" t="n">
-        <v>691463.39</v>
+        <v>684461.4</v>
       </c>
       <c r="E19" t="n">
-        <v>751930.59</v>
+        <v>696215.4399999999</v>
       </c>
       <c r="F19" t="n">
-        <v>744947.75</v>
+        <v>717988.37</v>
       </c>
       <c r="G19" t="n">
-        <v>748228.74</v>
+        <v>759010.72</v>
       </c>
       <c r="H19" t="n">
-        <v>749503.6800000001</v>
+        <v>745507.96</v>
       </c>
       <c r="I19" t="n">
-        <v>740999.96</v>
+        <v>795692.05</v>
       </c>
       <c r="J19" t="n">
-        <v>737036.3</v>
+        <v>911954.39</v>
       </c>
       <c r="K19" t="n">
-        <v>733639.09</v>
+        <v>931341.7</v>
       </c>
       <c r="L19" t="n">
-        <v>716460.95</v>
+        <v>957104.03</v>
       </c>
       <c r="M19" t="n">
-        <v>700134.3199999999</v>
+        <v>1020837.01</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1021228.94</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1042480.41</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1057878.95</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1103210.47</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1145251.51</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1145715.31</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1131113.34</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1151834.82</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1211197.08</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1336326.55</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1396038.66</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>1337426.35</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1385724.34</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>1278204.9</v>
       </c>
     </row>
     <row r="20">
@@ -1262,40 +2074,82 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>170767.56</v>
+        <v>170559.38</v>
       </c>
       <c r="C20" t="n">
-        <v>171096.47</v>
+        <v>165182.58</v>
       </c>
       <c r="D20" t="n">
-        <v>169692.99</v>
+        <v>164979.8</v>
       </c>
       <c r="E20" t="n">
-        <v>170009.73</v>
+        <v>160360.82</v>
       </c>
       <c r="F20" t="n">
-        <v>170942.34</v>
+        <v>160379.96</v>
       </c>
       <c r="G20" t="n">
-        <v>169824.13</v>
+        <v>171802.93</v>
       </c>
       <c r="H20" t="n">
-        <v>170871.36</v>
+        <v>172043.68</v>
       </c>
       <c r="I20" t="n">
-        <v>170971.2</v>
+        <v>186583.72</v>
       </c>
       <c r="J20" t="n">
-        <v>171085.37</v>
+        <v>201613.33</v>
       </c>
       <c r="K20" t="n">
-        <v>170451.64</v>
+        <v>201366.47</v>
       </c>
       <c r="L20" t="n">
-        <v>170521.1</v>
+        <v>212816.37</v>
       </c>
       <c r="M20" t="n">
-        <v>170559.38</v>
+        <v>212076.46</v>
+      </c>
+      <c r="N20" t="n">
+        <v>212585.54</v>
+      </c>
+      <c r="O20" t="n">
+        <v>213018.46</v>
+      </c>
+      <c r="P20" t="n">
+        <v>232408.29</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>236610.32</v>
+      </c>
+      <c r="R20" t="n">
+        <v>235362.29</v>
+      </c>
+      <c r="S20" t="n">
+        <v>237102.53</v>
+      </c>
+      <c r="T20" t="n">
+        <v>235986.35</v>
+      </c>
+      <c r="U20" t="n">
+        <v>236922.21</v>
+      </c>
+      <c r="V20" t="n">
+        <v>247068.99</v>
+      </c>
+      <c r="W20" t="n">
+        <v>249867.23</v>
+      </c>
+      <c r="X20" t="n">
+        <v>255557.14</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>256940.32</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>268866.37</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>269841.57</v>
       </c>
     </row>
     <row r="21">
@@ -1304,29 +2158,83 @@
           <t>Gainvest Renta Variable</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+      <c r="B21" t="n">
+        <v>259996.35</v>
+      </c>
+      <c r="C21" t="n">
+        <v>260291.65</v>
+      </c>
+      <c r="D21" t="n">
+        <v>257787.9</v>
+      </c>
+      <c r="E21" t="n">
+        <v>260173.66</v>
+      </c>
+      <c r="F21" t="n">
+        <v>260149.16</v>
+      </c>
+      <c r="G21" t="n">
+        <v>259750.6</v>
+      </c>
       <c r="H21" t="n">
-        <v>260004.73</v>
+        <v>260048.59</v>
       </c>
       <c r="I21" t="n">
-        <v>259741.01</v>
+        <v>259950.4</v>
       </c>
       <c r="J21" t="n">
-        <v>260086.8</v>
+        <v>259763.18</v>
       </c>
       <c r="K21" t="n">
-        <v>260193.8</v>
+        <v>260000.65</v>
       </c>
       <c r="L21" t="n">
-        <v>259727.08</v>
+        <v>260196</v>
       </c>
       <c r="M21" t="n">
-        <v>259996.35</v>
+        <v>259746.04</v>
+      </c>
+      <c r="N21" t="n">
+        <v>260219.81</v>
+      </c>
+      <c r="O21" t="n">
+        <v>260122.27</v>
+      </c>
+      <c r="P21" t="n">
+        <v>260148.41</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>259994.87</v>
+      </c>
+      <c r="R21" t="n">
+        <v>259890.51</v>
+      </c>
+      <c r="S21" t="n">
+        <v>260119.82</v>
+      </c>
+      <c r="T21" t="n">
+        <v>260239.88</v>
+      </c>
+      <c r="U21" t="n">
+        <v>259696.47</v>
+      </c>
+      <c r="V21" t="n">
+        <v>260126.91</v>
+      </c>
+      <c r="W21" t="n">
+        <v>260247.57</v>
+      </c>
+      <c r="X21" t="n">
+        <v>260214.04</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>260150.89</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>259966.27</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>260027.09</v>
       </c>
     </row>
     <row r="22">
@@ -1336,40 +2244,82 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3923342</v>
+        <v>3998102.61</v>
       </c>
       <c r="C22" t="n">
-        <v>3924173.45</v>
+        <v>3996679.48</v>
       </c>
       <c r="D22" t="n">
-        <v>3920165.58</v>
+        <v>3971705.96</v>
       </c>
       <c r="E22" t="n">
-        <v>3921133.09</v>
+        <v>4001647.83</v>
       </c>
       <c r="F22" t="n">
-        <v>3921766.11</v>
+        <v>3699101.12</v>
       </c>
       <c r="G22" t="n">
-        <v>3746929.18</v>
+        <v>3696331.06</v>
       </c>
       <c r="H22" t="n">
-        <v>3751313.07</v>
+        <v>3701556.49</v>
       </c>
       <c r="I22" t="n">
-        <v>3751431.98</v>
+        <v>3697666.96</v>
       </c>
       <c r="J22" t="n">
-        <v>4002255.41</v>
+        <v>3399337.83</v>
       </c>
       <c r="K22" t="n">
-        <v>3997719.62</v>
+        <v>3397901.93</v>
       </c>
       <c r="L22" t="n">
-        <v>4001427.59</v>
+        <v>3402459.65</v>
       </c>
       <c r="M22" t="n">
-        <v>3998102.61</v>
+        <v>3301760.79</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3297259.01</v>
+      </c>
+      <c r="O22" t="n">
+        <v>3299345.38</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3406484.16</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4397151.92</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4402128.81</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4396597.28</v>
+      </c>
+      <c r="T22" t="n">
+        <v>4397093.11</v>
+      </c>
+      <c r="U22" t="n">
+        <v>4398040.34</v>
+      </c>
+      <c r="V22" t="n">
+        <v>4400689.34</v>
+      </c>
+      <c r="W22" t="n">
+        <v>4403013.53</v>
+      </c>
+      <c r="X22" t="n">
+        <v>4396701.36</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>4401053.36</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>4401158.77</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>4397914.38</v>
       </c>
     </row>
     <row r="23">
@@ -1379,40 +2329,82 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>44513.71</v>
+        <v>29570.13</v>
       </c>
       <c r="C23" t="n">
-        <v>44699.71</v>
+        <v>29623.36</v>
       </c>
       <c r="D23" t="n">
-        <v>29695.77</v>
+        <v>29302.66</v>
       </c>
       <c r="E23" t="n">
-        <v>29602.93</v>
+        <v>29537.44</v>
       </c>
       <c r="F23" t="n">
-        <v>29651.83</v>
+        <v>29492.59</v>
       </c>
       <c r="G23" t="n">
-        <v>29546.27</v>
+        <v>29552.32</v>
       </c>
       <c r="H23" t="n">
-        <v>29576.96</v>
+        <v>29676.3</v>
       </c>
       <c r="I23" t="n">
-        <v>29680.06</v>
+        <v>29693.11</v>
       </c>
       <c r="J23" t="n">
-        <v>29531.33</v>
+        <v>29545.85</v>
       </c>
       <c r="K23" t="n">
-        <v>29658.77</v>
+        <v>29496.35</v>
       </c>
       <c r="L23" t="n">
-        <v>29503.66</v>
+        <v>29520.48</v>
       </c>
       <c r="M23" t="n">
-        <v>29570.13</v>
+        <v>29583.35</v>
+      </c>
+      <c r="N23" t="n">
+        <v>29658.52</v>
+      </c>
+      <c r="O23" t="n">
+        <v>29671.4</v>
+      </c>
+      <c r="P23" t="n">
+        <v>29523.02</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>29558.52</v>
+      </c>
+      <c r="R23" t="n">
+        <v>29474.21</v>
+      </c>
+      <c r="S23" t="n">
+        <v>29473.06</v>
+      </c>
+      <c r="T23" t="n">
+        <v>29678.94</v>
+      </c>
+      <c r="U23" t="n">
+        <v>29529.21</v>
+      </c>
+      <c r="V23" t="n">
+        <v>29661.07</v>
+      </c>
+      <c r="W23" t="n">
+        <v>29681.8</v>
+      </c>
+      <c r="X23" t="n">
+        <v>29466.63</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>29470.26</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>29458.55</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>29714.52</v>
       </c>
     </row>
     <row r="24">
@@ -1422,40 +2414,82 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2015.97</v>
+        <v>1983.55</v>
       </c>
       <c r="C24" t="n">
-        <v>2001.29</v>
+        <v>1993.99</v>
       </c>
       <c r="D24" t="n">
-        <v>2016.23</v>
+        <v>1989.18</v>
       </c>
       <c r="E24" t="n">
-        <v>2013.81</v>
+        <v>2015.07</v>
       </c>
       <c r="F24" t="n">
-        <v>2004.58</v>
+        <v>2036.32</v>
       </c>
       <c r="G24" t="n">
-        <v>1978.16</v>
+        <v>2014.91</v>
       </c>
       <c r="H24" t="n">
-        <v>2009.97</v>
+        <v>1971.99</v>
       </c>
       <c r="I24" t="n">
-        <v>2024.25</v>
+        <v>2015.35</v>
       </c>
       <c r="J24" t="n">
-        <v>1985.88</v>
+        <v>2032.11</v>
       </c>
       <c r="K24" t="n">
-        <v>1988.11</v>
+        <v>2020.68</v>
       </c>
       <c r="L24" t="n">
-        <v>2026.64</v>
+        <v>1999.8</v>
       </c>
       <c r="M24" t="n">
-        <v>1983.55</v>
+        <v>2021.84</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2011.08</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2033.27</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1961.59</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2006.26</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2006.31</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2040.27</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2004.11</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1954.06</v>
+      </c>
+      <c r="V24" t="n">
+        <v>2013.11</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1983.69</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1960.09</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>2014.64</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>2015</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>2002.11</v>
       </c>
     </row>
     <row r="25">
@@ -1465,40 +2499,82 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>131464.87</v>
+        <v>86346.17999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>131660.55</v>
+        <v>81443.02</v>
       </c>
       <c r="D25" t="n">
-        <v>131293.31</v>
+        <v>80547.96000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>131190.33</v>
+        <v>76466.44</v>
       </c>
       <c r="F25" t="n">
-        <v>131294.67</v>
+        <v>76281.99000000001</v>
       </c>
       <c r="G25" t="n">
-        <v>130980.99</v>
+        <v>71582.89999999999</v>
       </c>
       <c r="H25" t="n">
-        <v>126136.75</v>
+        <v>71140.97</v>
       </c>
       <c r="I25" t="n">
-        <v>111324.74</v>
+        <v>71059.02</v>
       </c>
       <c r="J25" t="n">
-        <v>96600.64</v>
+        <v>71163.74000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>91500.13</v>
+        <v>71009.19</v>
       </c>
       <c r="L25" t="n">
-        <v>86158.14</v>
+        <v>71350.64</v>
       </c>
       <c r="M25" t="n">
-        <v>86346.17999999999</v>
+        <v>71026.41</v>
+      </c>
+      <c r="N25" t="n">
+        <v>71102.66</v>
+      </c>
+      <c r="O25" t="n">
+        <v>71337.27</v>
+      </c>
+      <c r="P25" t="n">
+        <v>71210.58</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>71121.25999999999</v>
+      </c>
+      <c r="R25" t="n">
+        <v>71664.28999999999</v>
+      </c>
+      <c r="S25" t="n">
+        <v>76426.11</v>
+      </c>
+      <c r="T25" t="n">
+        <v>76461.28999999999</v>
+      </c>
+      <c r="U25" t="n">
+        <v>76444.45</v>
+      </c>
+      <c r="V25" t="n">
+        <v>76350.62</v>
+      </c>
+      <c r="W25" t="n">
+        <v>76507.06</v>
+      </c>
+      <c r="X25" t="n">
+        <v>86216.59</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>86226.17999999999</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>86341.14</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>86564.42</v>
       </c>
     </row>
     <row r="26">
@@ -1508,40 +2584,82 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>179125.87</v>
+        <v>147160.31</v>
       </c>
       <c r="C26" t="n">
-        <v>177945.73</v>
+        <v>146656.38</v>
       </c>
       <c r="D26" t="n">
-        <v>162096.54</v>
+        <v>145341.74</v>
       </c>
       <c r="E26" t="n">
-        <v>161564.12</v>
+        <v>146128.34</v>
       </c>
       <c r="F26" t="n">
-        <v>161139.4</v>
+        <v>147096.98</v>
       </c>
       <c r="G26" t="n">
-        <v>161823</v>
+        <v>157386.89</v>
       </c>
       <c r="H26" t="n">
-        <v>161866.26</v>
+        <v>156840.99</v>
       </c>
       <c r="I26" t="n">
-        <v>161246.63</v>
+        <v>156221.03</v>
       </c>
       <c r="J26" t="n">
-        <v>161503.69</v>
+        <v>156734.08</v>
       </c>
       <c r="K26" t="n">
-        <v>161696.16</v>
+        <v>157124.42</v>
       </c>
       <c r="L26" t="n">
-        <v>151236.88</v>
+        <v>156634.9</v>
       </c>
       <c r="M26" t="n">
-        <v>147160.31</v>
+        <v>156430.53</v>
+      </c>
+      <c r="N26" t="n">
+        <v>157357.59</v>
+      </c>
+      <c r="O26" t="n">
+        <v>157075.56</v>
+      </c>
+      <c r="P26" t="n">
+        <v>156254.23</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>156127.88</v>
+      </c>
+      <c r="R26" t="n">
+        <v>156584.26</v>
+      </c>
+      <c r="S26" t="n">
+        <v>156633.03</v>
+      </c>
+      <c r="T26" t="n">
+        <v>157525.09</v>
+      </c>
+      <c r="U26" t="n">
+        <v>157567.37</v>
+      </c>
+      <c r="V26" t="n">
+        <v>156245.33</v>
+      </c>
+      <c r="W26" t="n">
+        <v>156845.53</v>
+      </c>
+      <c r="X26" t="n">
+        <v>156731.96</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>156012.5</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>156565.04</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>156798.99</v>
       </c>
     </row>
     <row r="27">
@@ -1551,40 +2669,82 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>31611.5</v>
+        <v>45728.5</v>
       </c>
       <c r="C27" t="n">
-        <v>32867.42</v>
+        <v>45514.72</v>
       </c>
       <c r="D27" t="n">
-        <v>42489.83</v>
+        <v>43974.22</v>
       </c>
       <c r="E27" t="n">
-        <v>44411.51</v>
+        <v>43869.56</v>
       </c>
       <c r="F27" t="n">
-        <v>43987.33</v>
+        <v>44678.43</v>
       </c>
       <c r="G27" t="n">
-        <v>43884.82</v>
+        <v>47657.49</v>
       </c>
       <c r="H27" t="n">
-        <v>52277.71</v>
+        <v>48773.49</v>
       </c>
       <c r="I27" t="n">
-        <v>52404.59</v>
+        <v>50449.73</v>
       </c>
       <c r="J27" t="n">
-        <v>52194.14</v>
+        <v>51538.33</v>
       </c>
       <c r="K27" t="n">
-        <v>52358.4</v>
+        <v>54116.04</v>
       </c>
       <c r="L27" t="n">
-        <v>51600.59</v>
+        <v>53789.03</v>
       </c>
       <c r="M27" t="n">
-        <v>45728.5</v>
+        <v>62583.67</v>
+      </c>
+      <c r="N27" t="n">
+        <v>62676.75</v>
+      </c>
+      <c r="O27" t="n">
+        <v>64421.15</v>
+      </c>
+      <c r="P27" t="n">
+        <v>65824.33</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>66136.10000000001</v>
+      </c>
+      <c r="R27" t="n">
+        <v>66001.64999999999</v>
+      </c>
+      <c r="S27" t="n">
+        <v>65729.67</v>
+      </c>
+      <c r="T27" t="n">
+        <v>57800.21</v>
+      </c>
+      <c r="U27" t="n">
+        <v>49810.39</v>
+      </c>
+      <c r="V27" t="n">
+        <v>49156.31</v>
+      </c>
+      <c r="W27" t="n">
+        <v>47957.08</v>
+      </c>
+      <c r="X27" t="n">
+        <v>49761.77</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>40604.31</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>44399.47</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>44486.33</v>
       </c>
     </row>
     <row r="28">
@@ -1594,40 +2754,82 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3172.93</v>
+        <v>3616.76</v>
       </c>
       <c r="C28" t="n">
-        <v>3195.36</v>
+        <v>3555.55</v>
       </c>
       <c r="D28" t="n">
-        <v>3658.87</v>
+        <v>3506.83</v>
       </c>
       <c r="E28" t="n">
-        <v>3647.03</v>
+        <v>3548.72</v>
       </c>
       <c r="F28" t="n">
-        <v>3621.41</v>
+        <v>3565.72</v>
       </c>
       <c r="G28" t="n">
-        <v>3625.06</v>
+        <v>3560.18</v>
       </c>
       <c r="H28" t="n">
-        <v>3619.41</v>
+        <v>3559.48</v>
       </c>
       <c r="I28" t="n">
-        <v>3617.84</v>
+        <v>3554.73</v>
       </c>
       <c r="J28" t="n">
-        <v>3629.88</v>
+        <v>3558.73</v>
       </c>
       <c r="K28" t="n">
-        <v>3630.43</v>
+        <v>3533.03</v>
       </c>
       <c r="L28" t="n">
-        <v>3652.8</v>
+        <v>3540.64</v>
       </c>
       <c r="M28" t="n">
-        <v>3616.76</v>
+        <v>3550.8</v>
+      </c>
+      <c r="N28" t="n">
+        <v>3547.67</v>
+      </c>
+      <c r="O28" t="n">
+        <v>3540.83</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3558.78</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3540.1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3547.25</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3554.25</v>
+      </c>
+      <c r="T28" t="n">
+        <v>3562.48</v>
+      </c>
+      <c r="U28" t="n">
+        <v>3563.15</v>
+      </c>
+      <c r="V28" t="n">
+        <v>3565.01</v>
+      </c>
+      <c r="W28" t="n">
+        <v>3546.43</v>
+      </c>
+      <c r="X28" t="n">
+        <v>3334.72</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>3354.1</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>3357.69</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>3364.9</v>
       </c>
     </row>
     <row r="29">
@@ -1637,40 +2839,82 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>17221.56</v>
+        <v>35979.16</v>
       </c>
       <c r="C29" t="n">
-        <v>17199.12</v>
+        <v>31148.12</v>
       </c>
       <c r="D29" t="n">
-        <v>36859.53</v>
+        <v>30678.58</v>
       </c>
       <c r="E29" t="n">
-        <v>41000.29</v>
+        <v>31094.14</v>
       </c>
       <c r="F29" t="n">
-        <v>40900.51</v>
+        <v>31055.4</v>
       </c>
       <c r="G29" t="n">
-        <v>41009.56</v>
+        <v>30864.35</v>
       </c>
       <c r="H29" t="n">
-        <v>41153.1</v>
+        <v>30819.69</v>
       </c>
       <c r="I29" t="n">
-        <v>41109.01</v>
+        <v>30885.29</v>
       </c>
       <c r="J29" t="n">
-        <v>45463.89</v>
+        <v>30994.52</v>
       </c>
       <c r="K29" t="n">
-        <v>41663.32</v>
+        <v>31172.78</v>
       </c>
       <c r="L29" t="n">
-        <v>35755.44</v>
+        <v>31118.61</v>
       </c>
       <c r="M29" t="n">
-        <v>35979.16</v>
+        <v>43347.84</v>
+      </c>
+      <c r="N29" t="n">
+        <v>43729.05</v>
+      </c>
+      <c r="O29" t="n">
+        <v>43357.19</v>
+      </c>
+      <c r="P29" t="n">
+        <v>43487.65</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>43728.03</v>
+      </c>
+      <c r="R29" t="n">
+        <v>43441.92</v>
+      </c>
+      <c r="S29" t="n">
+        <v>49097.73</v>
+      </c>
+      <c r="T29" t="n">
+        <v>40333.68</v>
+      </c>
+      <c r="U29" t="n">
+        <v>34124.96</v>
+      </c>
+      <c r="V29" t="n">
+        <v>34190.29</v>
+      </c>
+      <c r="W29" t="n">
+        <v>34048.04</v>
+      </c>
+      <c r="X29" t="n">
+        <v>34676.69</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>40325.12</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>41100.33</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>38235.34</v>
       </c>
     </row>
     <row r="30">
@@ -1680,40 +2924,82 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>17914.92</v>
+        <v>28162.29</v>
       </c>
       <c r="C30" t="n">
-        <v>18105.08</v>
+        <v>28019.84</v>
       </c>
       <c r="D30" t="n">
-        <v>18021.53</v>
+        <v>27931.22</v>
       </c>
       <c r="E30" t="n">
-        <v>28147.86</v>
+        <v>27961.77</v>
       </c>
       <c r="F30" t="n">
-        <v>28136.16</v>
+        <v>27887.15</v>
       </c>
       <c r="G30" t="n">
-        <v>28096.8</v>
+        <v>27919.59</v>
       </c>
       <c r="H30" t="n">
-        <v>28043.33</v>
+        <v>27925.23</v>
       </c>
       <c r="I30" t="n">
-        <v>28104.59</v>
+        <v>28163.63</v>
       </c>
       <c r="J30" t="n">
-        <v>28077.88</v>
+        <v>27903.17</v>
       </c>
       <c r="K30" t="n">
-        <v>28110.75</v>
+        <v>28080.75</v>
       </c>
       <c r="L30" t="n">
-        <v>28085.19</v>
+        <v>27947.66</v>
       </c>
       <c r="M30" t="n">
-        <v>28162.29</v>
+        <v>28010.64</v>
+      </c>
+      <c r="N30" t="n">
+        <v>28050.81</v>
+      </c>
+      <c r="O30" t="n">
+        <v>28053.1</v>
+      </c>
+      <c r="P30" t="n">
+        <v>27966.43</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>28039.74</v>
+      </c>
+      <c r="R30" t="n">
+        <v>27953.47</v>
+      </c>
+      <c r="S30" t="n">
+        <v>28071.9</v>
+      </c>
+      <c r="T30" t="n">
+        <v>27931.28</v>
+      </c>
+      <c r="U30" t="n">
+        <v>37933.85</v>
+      </c>
+      <c r="V30" t="n">
+        <v>38141.39</v>
+      </c>
+      <c r="W30" t="n">
+        <v>37987.28</v>
+      </c>
+      <c r="X30" t="n">
+        <v>38100.18</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>37927.95</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>37893.54</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>38113.76</v>
       </c>
     </row>
     <row r="31">
@@ -1723,40 +3009,82 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>27070.97</v>
+        <v>20133.38</v>
       </c>
       <c r="C31" t="n">
-        <v>27054.06</v>
+        <v>20138.43</v>
       </c>
       <c r="D31" t="n">
-        <v>20063.61</v>
+        <v>20046.78</v>
       </c>
       <c r="E31" t="n">
-        <v>20021.43</v>
+        <v>32446.44</v>
       </c>
       <c r="F31" t="n">
-        <v>20040.69</v>
+        <v>32569.05</v>
       </c>
       <c r="G31" t="n">
-        <v>20033.15</v>
+        <v>32590.21</v>
       </c>
       <c r="H31" t="n">
-        <v>20173.86</v>
+        <v>32523.92</v>
       </c>
       <c r="I31" t="n">
-        <v>20053.46</v>
+        <v>32566.32</v>
       </c>
       <c r="J31" t="n">
-        <v>20031.45</v>
+        <v>32390.88</v>
       </c>
       <c r="K31" t="n">
-        <v>20069.71</v>
+        <v>32495.15</v>
       </c>
       <c r="L31" t="n">
-        <v>20176.63</v>
+        <v>32531.12</v>
       </c>
       <c r="M31" t="n">
-        <v>20133.38</v>
+        <v>32451.61</v>
+      </c>
+      <c r="N31" t="n">
+        <v>32509.23</v>
+      </c>
+      <c r="O31" t="n">
+        <v>32545.16</v>
+      </c>
+      <c r="P31" t="n">
+        <v>32577.21</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>32456.76</v>
+      </c>
+      <c r="R31" t="n">
+        <v>32402.28</v>
+      </c>
+      <c r="S31" t="n">
+        <v>32512.77</v>
+      </c>
+      <c r="T31" t="n">
+        <v>32362.79</v>
+      </c>
+      <c r="U31" t="n">
+        <v>32352.3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>32512.53</v>
+      </c>
+      <c r="W31" t="n">
+        <v>40994.78</v>
+      </c>
+      <c r="X31" t="n">
+        <v>41047.96</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>41218.25</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>41056.54</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>41227.12</v>
       </c>
     </row>
     <row r="32">
@@ -1766,38 +3094,82 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>98230.83</v>
-      </c>
-      <c r="C32" t="inlineStr"/>
+        <v>97901.32000000001</v>
+      </c>
+      <c r="C32" t="n">
+        <v>98172.28999999999</v>
+      </c>
       <c r="D32" t="n">
-        <v>97963.47</v>
+        <v>97215.81</v>
       </c>
       <c r="E32" t="n">
-        <v>98109.58</v>
+        <v>98402.36</v>
       </c>
       <c r="F32" t="n">
-        <v>98168.33</v>
+        <v>98206.02</v>
       </c>
       <c r="G32" t="n">
-        <v>98290.08</v>
+        <v>98647.69</v>
       </c>
       <c r="H32" t="n">
-        <v>98521.56</v>
+        <v>98214.46000000001</v>
       </c>
       <c r="I32" t="n">
-        <v>97897.69</v>
+        <v>98514.17999999999</v>
       </c>
       <c r="J32" t="n">
-        <v>98362.41</v>
+        <v>98105.05</v>
       </c>
       <c r="K32" t="n">
-        <v>98278.78999999999</v>
+        <v>97895.8</v>
       </c>
       <c r="L32" t="n">
-        <v>98580.94</v>
+        <v>98152.28999999999</v>
       </c>
       <c r="M32" t="n">
-        <v>97901.32000000001</v>
+        <v>98356.10000000001</v>
+      </c>
+      <c r="N32" t="n">
+        <v>98424.8</v>
+      </c>
+      <c r="O32" t="n">
+        <v>98302.17</v>
+      </c>
+      <c r="P32" t="n">
+        <v>97999.44</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>97910.59</v>
+      </c>
+      <c r="R32" t="n">
+        <v>98267.96000000001</v>
+      </c>
+      <c r="S32" t="n">
+        <v>97836.48</v>
+      </c>
+      <c r="T32" t="n">
+        <v>98269.86</v>
+      </c>
+      <c r="U32" t="n">
+        <v>98357.37</v>
+      </c>
+      <c r="V32" t="n">
+        <v>97818.8</v>
+      </c>
+      <c r="W32" t="n">
+        <v>98734.38</v>
+      </c>
+      <c r="X32" t="n">
+        <v>98268.34</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>98349.14999999999</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>97990.49000000001</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>98055.2</v>
       </c>
     </row>
     <row r="33">
@@ -1807,40 +3179,82 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>59223</v>
+        <v>104022.8</v>
       </c>
       <c r="C33" t="n">
-        <v>59055.94</v>
+        <v>103466.77</v>
       </c>
       <c r="D33" t="n">
-        <v>59576.39</v>
+        <v>103272.36</v>
       </c>
       <c r="E33" t="n">
-        <v>227622.62</v>
+        <v>103114.78</v>
       </c>
       <c r="F33" t="n">
-        <v>227847.22</v>
+        <v>103067.67</v>
       </c>
       <c r="G33" t="n">
-        <v>228094.08</v>
+        <v>103744.37</v>
       </c>
       <c r="H33" t="n">
-        <v>227695.84</v>
+        <v>102926.81</v>
       </c>
       <c r="I33" t="n">
-        <v>227479.97</v>
+        <v>103360.62</v>
       </c>
       <c r="J33" t="n">
-        <v>228143.65</v>
+        <v>103747.61</v>
       </c>
       <c r="K33" t="n">
-        <v>228212.96</v>
+        <v>103771.51</v>
       </c>
       <c r="L33" t="n">
-        <v>103941.97</v>
+        <v>103524.77</v>
       </c>
       <c r="M33" t="n">
-        <v>104022.8</v>
+        <v>103743.32</v>
+      </c>
+      <c r="N33" t="n">
+        <v>104547.31</v>
+      </c>
+      <c r="O33" t="n">
+        <v>103146</v>
+      </c>
+      <c r="P33" t="n">
+        <v>103166.57</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>104226.52</v>
+      </c>
+      <c r="R33" t="n">
+        <v>102734.69</v>
+      </c>
+      <c r="S33" t="n">
+        <v>104335.05</v>
+      </c>
+      <c r="T33" t="n">
+        <v>103891.52</v>
+      </c>
+      <c r="U33" t="n">
+        <v>103753.84</v>
+      </c>
+      <c r="V33" t="n">
+        <v>104642.17</v>
+      </c>
+      <c r="W33" t="n">
+        <v>216107.43</v>
+      </c>
+      <c r="X33" t="n">
+        <v>214978.67</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>215837.44</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>214752.89</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>215125.77</v>
       </c>
     </row>
     <row r="34">
@@ -1850,40 +3264,82 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>70754.56</v>
+        <v>59253.5</v>
       </c>
       <c r="C34" t="n">
-        <v>70741.14</v>
+        <v>59285.37</v>
       </c>
       <c r="D34" t="n">
-        <v>80825.78999999999</v>
+        <v>58761.54</v>
       </c>
       <c r="E34" t="n">
-        <v>80712.02</v>
+        <v>59395.25</v>
       </c>
       <c r="F34" t="n">
-        <v>80819.14999999999</v>
+        <v>59159.57</v>
       </c>
       <c r="G34" t="n">
-        <v>80757.33</v>
+        <v>62130.24</v>
       </c>
       <c r="H34" t="n">
-        <v>85701.46000000001</v>
+        <v>67271.64999999999</v>
       </c>
       <c r="I34" t="n">
-        <v>65528.65</v>
+        <v>67279.78999999999</v>
       </c>
       <c r="J34" t="n">
-        <v>69057.09</v>
+        <v>67266.85000000001</v>
       </c>
       <c r="K34" t="n">
-        <v>63263.16</v>
+        <v>66938.91</v>
       </c>
       <c r="L34" t="n">
-        <v>59100.66</v>
+        <v>69536.62</v>
       </c>
       <c r="M34" t="n">
-        <v>59253.5</v>
+        <v>89724.58</v>
+      </c>
+      <c r="N34" t="n">
+        <v>89375.39999999999</v>
+      </c>
+      <c r="O34" t="n">
+        <v>89447.96000000001</v>
+      </c>
+      <c r="P34" t="n">
+        <v>84823.19</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>100643.32</v>
+      </c>
+      <c r="R34" t="n">
+        <v>100397.82</v>
+      </c>
+      <c r="S34" t="n">
+        <v>100478.16</v>
+      </c>
+      <c r="T34" t="n">
+        <v>100211.67</v>
+      </c>
+      <c r="U34" t="n">
+        <v>30421.01</v>
+      </c>
+      <c r="V34" t="n">
+        <v>30463.45</v>
+      </c>
+      <c r="W34" t="n">
+        <v>30754.3</v>
+      </c>
+      <c r="X34" t="n">
+        <v>30079.85</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>30397.87</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>47651.8</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>47641.37</v>
       </c>
     </row>
     <row r="35">
@@ -1893,40 +3349,82 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>86322.5</v>
+        <v>86716.39</v>
       </c>
       <c r="C35" t="n">
-        <v>86828.71000000001</v>
+        <v>86352.42999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>86359.42999999999</v>
+        <v>86316.86</v>
       </c>
       <c r="E35" t="n">
-        <v>86453.44</v>
+        <v>130441.9</v>
       </c>
       <c r="F35" t="n">
-        <v>86502.89</v>
+        <v>130013.46</v>
       </c>
       <c r="G35" t="n">
-        <v>86836.28</v>
+        <v>130304.21</v>
       </c>
       <c r="H35" t="n">
-        <v>86654.2</v>
+        <v>129968.32</v>
       </c>
       <c r="I35" t="n">
-        <v>86264.38</v>
+        <v>129909.92</v>
       </c>
       <c r="J35" t="n">
-        <v>86924.00999999999</v>
+        <v>129865.15</v>
       </c>
       <c r="K35" t="n">
-        <v>86379.24000000001</v>
+        <v>130469.51</v>
       </c>
       <c r="L35" t="n">
-        <v>86494.12</v>
+        <v>129648.43</v>
       </c>
       <c r="M35" t="n">
-        <v>86716.39</v>
+        <v>130190.14</v>
+      </c>
+      <c r="N35" t="n">
+        <v>130008.98</v>
+      </c>
+      <c r="O35" t="n">
+        <v>115629.31</v>
+      </c>
+      <c r="P35" t="n">
+        <v>106580.48</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>106788.22</v>
+      </c>
+      <c r="R35" t="n">
+        <v>106737.02</v>
+      </c>
+      <c r="S35" t="n">
+        <v>107065.73</v>
+      </c>
+      <c r="T35" t="n">
+        <v>106663.25</v>
+      </c>
+      <c r="U35" t="n">
+        <v>106813.15</v>
+      </c>
+      <c r="V35" t="n">
+        <v>107068.6</v>
+      </c>
+      <c r="W35" t="n">
+        <v>106918.47</v>
+      </c>
+      <c r="X35" t="n">
+        <v>106508.45</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>106413.64</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>113390.64</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>113478.74</v>
       </c>
     </row>
     <row r="36">
@@ -1936,40 +3434,82 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>62224.84</v>
+        <v>60816.9</v>
       </c>
       <c r="C36" t="n">
-        <v>62146.73</v>
+        <v>57480.61</v>
       </c>
       <c r="D36" t="n">
-        <v>58491.76</v>
+        <v>56964.02</v>
       </c>
       <c r="E36" t="n">
-        <v>57223.75</v>
+        <v>58380.5</v>
       </c>
       <c r="F36" t="n">
-        <v>62018.58</v>
+        <v>57511.12</v>
       </c>
       <c r="G36" t="n">
-        <v>62647.08</v>
+        <v>62568.92</v>
       </c>
       <c r="H36" t="n">
-        <v>62645.24</v>
+        <v>62509.02</v>
       </c>
       <c r="I36" t="n">
-        <v>62942.33</v>
+        <v>62804.91</v>
       </c>
       <c r="J36" t="n">
-        <v>62713.11</v>
+        <v>62637.94</v>
       </c>
       <c r="K36" t="n">
-        <v>62553.94</v>
+        <v>62786.44</v>
       </c>
       <c r="L36" t="n">
-        <v>62803.34</v>
+        <v>61961.88</v>
       </c>
       <c r="M36" t="n">
-        <v>60816.9</v>
+        <v>58995.66</v>
+      </c>
+      <c r="N36" t="n">
+        <v>58150.86</v>
+      </c>
+      <c r="O36" t="n">
+        <v>58490.84</v>
+      </c>
+      <c r="P36" t="n">
+        <v>62851.92</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>61052.91</v>
+      </c>
+      <c r="R36" t="n">
+        <v>60974.22</v>
+      </c>
+      <c r="S36" t="n">
+        <v>61387.52</v>
+      </c>
+      <c r="T36" t="n">
+        <v>66967.34</v>
+      </c>
+      <c r="U36" t="n">
+        <v>67231.71000000001</v>
+      </c>
+      <c r="V36" t="n">
+        <v>65830.88</v>
+      </c>
+      <c r="W36" t="n">
+        <v>65899.44</v>
+      </c>
+      <c r="X36" t="n">
+        <v>74112.64999999999</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>73770.10000000001</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>74305.44</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>73976.75</v>
       </c>
     </row>
     <row r="37">
@@ -1979,40 +3519,82 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>141434.49</v>
+        <v>343811.79</v>
       </c>
       <c r="C37" t="n">
-        <v>238036.54</v>
+        <v>342815.94</v>
       </c>
       <c r="D37" t="n">
-        <v>342975.05</v>
+        <v>341645.48</v>
       </c>
       <c r="E37" t="n">
-        <v>343624.62</v>
+        <v>343449.15</v>
       </c>
       <c r="F37" t="n">
-        <v>343161.76</v>
+        <v>344311.62</v>
       </c>
       <c r="G37" t="n">
-        <v>343090.58</v>
+        <v>343452.72</v>
       </c>
       <c r="H37" t="n">
-        <v>344485.63</v>
+        <v>344031.85</v>
       </c>
       <c r="I37" t="n">
-        <v>343307.68</v>
+        <v>344063.93</v>
       </c>
       <c r="J37" t="n">
-        <v>344172.13</v>
+        <v>343917.4</v>
       </c>
       <c r="K37" t="n">
-        <v>343864.58</v>
+        <v>344852.53</v>
       </c>
       <c r="L37" t="n">
-        <v>343144.16</v>
+        <v>342800.73</v>
       </c>
       <c r="M37" t="n">
-        <v>343811.79</v>
+        <v>389128.61</v>
+      </c>
+      <c r="N37" t="n">
+        <v>389948.55</v>
+      </c>
+      <c r="O37" t="n">
+        <v>389228.27</v>
+      </c>
+      <c r="P37" t="n">
+        <v>271068.76</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>270245.42</v>
+      </c>
+      <c r="R37" t="n">
+        <v>269751.78</v>
+      </c>
+      <c r="S37" t="n">
+        <v>271151.52</v>
+      </c>
+      <c r="T37" t="n">
+        <v>271577.74</v>
+      </c>
+      <c r="U37" t="n">
+        <v>270218.24</v>
+      </c>
+      <c r="V37" t="n">
+        <v>271041.09</v>
+      </c>
+      <c r="W37" t="n">
+        <v>269832.6</v>
+      </c>
+      <c r="X37" t="n">
+        <v>270026.33</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>269873.39</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>271404.86</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>271062.79</v>
       </c>
     </row>
     <row r="38">
@@ -2022,108 +3604,210 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>376145.49</v>
+        <v>414696.82</v>
       </c>
       <c r="C38" t="n">
-        <v>376234.52</v>
+        <v>415149.26</v>
       </c>
       <c r="D38" t="n">
-        <v>375697.1</v>
+        <v>412679.34</v>
       </c>
       <c r="E38" t="n">
-        <v>414459.29</v>
+        <v>414454.49</v>
       </c>
       <c r="F38" t="n">
-        <v>415087.67</v>
+        <v>413906.99</v>
       </c>
       <c r="G38" t="n">
-        <v>415135.16</v>
+        <v>414246.56</v>
       </c>
       <c r="H38" t="n">
-        <v>416761.18</v>
+        <v>415242.99</v>
       </c>
       <c r="I38" t="n">
-        <v>414225.85</v>
+        <v>434618.37</v>
       </c>
       <c r="J38" t="n">
-        <v>414018.98</v>
+        <v>433859.54</v>
       </c>
       <c r="K38" t="n">
-        <v>413222.8</v>
+        <v>433697.41</v>
       </c>
       <c r="L38" t="n">
-        <v>414326.72</v>
+        <v>434597.33</v>
       </c>
       <c r="M38" t="n">
-        <v>414696.82</v>
+        <v>432056.23</v>
+      </c>
+      <c r="N38" t="n">
+        <v>432094.37</v>
+      </c>
+      <c r="O38" t="n">
+        <v>432230.38</v>
+      </c>
+      <c r="P38" t="n">
+        <v>431740.31</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>432956.15</v>
+      </c>
+      <c r="R38" t="n">
+        <v>432687.89</v>
+      </c>
+      <c r="S38" t="n">
+        <v>432187.27</v>
+      </c>
+      <c r="T38" t="n">
+        <v>432248.34</v>
+      </c>
+      <c r="U38" t="n">
+        <v>428665.83</v>
+      </c>
+      <c r="V38" t="n">
+        <v>435117.36</v>
+      </c>
+      <c r="W38" t="n">
+        <v>432556.66</v>
+      </c>
+      <c r="X38" t="n">
+        <v>435135.19</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>434841.89</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>435015.84</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>434573.56</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1376831.53</v>
+        <v>2090484.02</v>
       </c>
       <c r="C39" t="n">
-        <v>1379923.04</v>
+        <v>2092899.35</v>
       </c>
       <c r="D39" t="n">
-        <v>1422133.76</v>
-      </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
+        <v>1997623.87</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1701535.37</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1599281.73</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1599994.25</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1601676.03</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1602035.68</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1598202.4</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1598230.86</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1601806.06</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1597339.83</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1598664.44</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1602078.63</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1597319.84</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1872841.29</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1870505.05</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1873865.15</v>
+      </c>
+      <c r="T39" t="n">
+        <v>2013161.31</v>
+      </c>
+      <c r="U39" t="n">
+        <v>2009896.9</v>
+      </c>
+      <c r="V39" t="n">
+        <v>2011699.48</v>
+      </c>
+      <c r="W39" t="n">
+        <v>2011509.67</v>
+      </c>
+      <c r="X39" t="n">
+        <v>2326490.59</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>2333645.44</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>2330564.75</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>2333546.59</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>2091740.24</v>
-      </c>
-      <c r="C40" t="n">
-        <v>2092740.93</v>
-      </c>
-      <c r="D40" t="n">
-        <v>2092542.65</v>
-      </c>
-      <c r="E40" t="n">
-        <v>2091666.21</v>
-      </c>
-      <c r="F40" t="n">
-        <v>2093472.15</v>
-      </c>
-      <c r="G40" t="n">
-        <v>2091596.32</v>
-      </c>
-      <c r="H40" t="n">
-        <v>2090748.15</v>
-      </c>
-      <c r="I40" t="n">
-        <v>2091085.04</v>
-      </c>
-      <c r="J40" t="n">
-        <v>2092941.57</v>
-      </c>
-      <c r="K40" t="n">
-        <v>2091058.33</v>
-      </c>
-      <c r="L40" t="n">
-        <v>2094102.91</v>
-      </c>
-      <c r="M40" t="n">
-        <v>2090484.02</v>
+          <t>Supergestion</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="n">
+        <v>112833</v>
+      </c>
+      <c r="X40" t="n">
+        <v>114899.4</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>114014.31</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>111755.79</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>114161.39</v>
       </c>
     </row>
     <row r="41">
@@ -2133,40 +3817,82 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>40058.31</v>
+        <v>40174.37</v>
       </c>
       <c r="C41" t="n">
-        <v>40239.96</v>
+        <v>40257.86</v>
       </c>
       <c r="D41" t="n">
-        <v>40215.1</v>
+        <v>39826.54</v>
       </c>
       <c r="E41" t="n">
-        <v>40084.27</v>
+        <v>40292.19</v>
       </c>
       <c r="F41" t="n">
-        <v>40263.54</v>
+        <v>40173.75</v>
       </c>
       <c r="G41" t="n">
-        <v>40084.1</v>
+        <v>40004.04</v>
       </c>
       <c r="H41" t="n">
-        <v>40127</v>
+        <v>40176.34</v>
       </c>
       <c r="I41" t="n">
-        <v>40073.35</v>
+        <v>40274.23</v>
       </c>
       <c r="J41" t="n">
-        <v>40085.48</v>
+        <v>40001.87</v>
       </c>
       <c r="K41" t="n">
-        <v>40256.34</v>
+        <v>40070.41</v>
       </c>
       <c r="L41" t="n">
-        <v>40031.04</v>
+        <v>40156.04</v>
       </c>
       <c r="M41" t="n">
-        <v>40174.37</v>
+        <v>40234.84</v>
+      </c>
+      <c r="N41" t="n">
+        <v>40215.5</v>
+      </c>
+      <c r="O41" t="n">
+        <v>40195.64</v>
+      </c>
+      <c r="P41" t="n">
+        <v>40016.87</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>46776.57</v>
+      </c>
+      <c r="R41" t="n">
+        <v>46553.69</v>
+      </c>
+      <c r="S41" t="n">
+        <v>46560.85</v>
+      </c>
+      <c r="T41" t="n">
+        <v>46675.11</v>
+      </c>
+      <c r="U41" t="n">
+        <v>46679.31</v>
+      </c>
+      <c r="V41" t="n">
+        <v>46575.29</v>
+      </c>
+      <c r="W41" t="n">
+        <v>46706.26</v>
+      </c>
+      <c r="X41" t="n">
+        <v>46734.42</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>46656.45</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>46587.39</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>46543.85</v>
       </c>
     </row>
     <row r="42">
@@ -2176,40 +3902,82 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>356362.63</v>
+        <v>329682.84</v>
       </c>
       <c r="C42" t="n">
-        <v>390780.11</v>
+        <v>328827.17</v>
       </c>
       <c r="D42" t="n">
-        <v>362875.89</v>
+        <v>325131.81</v>
       </c>
       <c r="E42" t="n">
-        <v>342126.86</v>
+        <v>319017.17</v>
       </c>
       <c r="F42" t="n">
-        <v>342016.4</v>
+        <v>308699.88</v>
       </c>
       <c r="G42" t="n">
-        <v>337219.21</v>
+        <v>310380.52</v>
       </c>
       <c r="H42" t="n">
-        <v>335674.59</v>
+        <v>310356.84</v>
       </c>
       <c r="I42" t="n">
-        <v>332478.51</v>
+        <v>312794.65</v>
       </c>
       <c r="J42" t="n">
-        <v>337978.46</v>
+        <v>311013.02</v>
       </c>
       <c r="K42" t="n">
-        <v>336429.84</v>
+        <v>311764.31</v>
       </c>
       <c r="L42" t="n">
-        <v>331042.48</v>
+        <v>313136.67</v>
       </c>
       <c r="M42" t="n">
-        <v>329682.84</v>
+        <v>314952.93</v>
+      </c>
+      <c r="N42" t="n">
+        <v>321583.22</v>
+      </c>
+      <c r="O42" t="n">
+        <v>322737.49</v>
+      </c>
+      <c r="P42" t="n">
+        <v>323560.91</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>359503.55</v>
+      </c>
+      <c r="R42" t="n">
+        <v>361086.5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>361443.75</v>
+      </c>
+      <c r="T42" t="n">
+        <v>362951.91</v>
+      </c>
+      <c r="U42" t="n">
+        <v>359065.38</v>
+      </c>
+      <c r="V42" t="n">
+        <v>363801.74</v>
+      </c>
+      <c r="W42" t="n">
+        <v>363686.64</v>
+      </c>
+      <c r="X42" t="n">
+        <v>374927.46</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>375210.84</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>373140.95</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>369318.15</v>
       </c>
     </row>
     <row r="43">
@@ -2219,40 +3987,82 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>13898142.53</v>
+        <v>12857630.62</v>
       </c>
       <c r="C43" t="n">
-        <v>12114183.54</v>
+        <v>12824259.57</v>
       </c>
       <c r="D43" t="n">
-        <v>14152159.87</v>
+        <v>12680140.48</v>
       </c>
       <c r="E43" t="n">
-        <v>13000820.68</v>
+        <v>12441669.64</v>
       </c>
       <c r="F43" t="n">
-        <v>12996623.12</v>
+        <v>12039295.34</v>
       </c>
       <c r="G43" t="n">
-        <v>12814329.98</v>
+        <v>12104840.11</v>
       </c>
       <c r="H43" t="n">
-        <v>13091309.05</v>
+        <v>12103916.82</v>
       </c>
       <c r="I43" t="n">
-        <v>12966661.72</v>
+        <v>12198991.34</v>
       </c>
       <c r="J43" t="n">
-        <v>13181159.85</v>
+        <v>12129507.6</v>
       </c>
       <c r="K43" t="n">
-        <v>13120763.89</v>
+        <v>12158808.25</v>
       </c>
       <c r="L43" t="n">
-        <v>12910656.71</v>
+        <v>12212330.1</v>
       </c>
       <c r="M43" t="n">
-        <v>12857630.62</v>
+        <v>12283164.2</v>
+      </c>
+      <c r="N43" t="n">
+        <v>12220162.28</v>
+      </c>
+      <c r="O43" t="n">
+        <v>12264024.5</v>
+      </c>
+      <c r="P43" t="n">
+        <v>12295314.73</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>13661134.96</v>
+      </c>
+      <c r="R43" t="n">
+        <v>13721287.1</v>
+      </c>
+      <c r="S43" t="n">
+        <v>13734862.5</v>
+      </c>
+      <c r="T43" t="n">
+        <v>13792172.42</v>
+      </c>
+      <c r="U43" t="n">
+        <v>13644484.49</v>
+      </c>
+      <c r="V43" t="n">
+        <v>13824466.24</v>
+      </c>
+      <c r="W43" t="n">
+        <v>14183778.81</v>
+      </c>
+      <c r="X43" t="n">
+        <v>14622170.8</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>14633222.66</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>14552496.89</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>14403407.95</v>
       </c>
     </row>
   </sheetData>
